--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32341-d10806610-Reviews-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Cambria-Hotel-Suites-LAX.h16159546.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1746 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r591120076-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>32341</t>
+  </si>
+  <si>
+    <t>10806610</t>
+  </si>
+  <si>
+    <t>591120076</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Good but not great</t>
+  </si>
+  <si>
+    <t>We stayed twice at this hotel in the past months - the first visit was much better than the second and the difference was significant. First the good points - the hotel is mostly quiet (some noise from adjacent and higher rooms) and comfortable. The rooms are modern but not particularly well fitted out. On our first visit we found the housekeeping very good - the room was clean and the nice notes left by the staff welcome. On our second visit this was not the case - the room was quite dirty - the tiles in the entry were visibly dirty and a few minutes on the carpet barefoot led to the black footprints in the shower that indicates dirty carpet. The front of house staff were mostly friendly but there was one guy who was far from that. Breakfast is not included on the price (an extra $12.95 each from memory and no better than that included for free by other properties). If you'd asked me if I'd stay here again after the first visit I'd have answered yes, now I'm not so sureMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed twice at this hotel in the past months - the first visit was much better than the second and the difference was significant. First the good points - the hotel is mostly quiet (some noise from adjacent and higher rooms) and comfortable. The rooms are modern but not particularly well fitted out. On our first visit we found the housekeeping very good - the room was clean and the nice notes left by the staff welcome. On our second visit this was not the case - the room was quite dirty - the tiles in the entry were visibly dirty and a few minutes on the carpet barefoot led to the black footprints in the shower that indicates dirty carpet. The front of house staff were mostly friendly but there was one guy who was far from that. Breakfast is not included on the price (an extra $12.95 each from memory and no better than that included for free by other properties). If you'd asked me if I'd stay here again after the first visit I'd have answered yes, now I'm not so sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r590763706-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>590763706</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel &amp; location</t>
+  </si>
+  <si>
+    <t>Nice heated outdoor pool. Rooms were clean and spacious. The location was quite and had parking. The hotel shuttle to airport was fast &amp; friendly guys! Would recommend this place to anyone. Wished it had better selection on snacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r590458059-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>590458059</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The Cambria Hotel LAX is a modern and new Hotel next to LAX. The rooms are spacious, the bathroom has a great shower. We also liked that you can open a window. It was also very quiet and we enjoyed relaxing at the pool before our flight. The Hotel is also very close to the Airport. Also all employees were super nice, helpful, friendly! We stayed at a lot LAX-Hotels but I've to say we liked the Cambria most; we'll be definitley be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r587649064-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>587649064</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>My Happy Place</t>
+  </si>
+  <si>
+    <t>Manager Drew Berry went above the call of duty for us regarding a personal matter ..he and his staff proved to be very trustworthy and friendly professionals..hotel very modern and clean..comfortable rooms and nice large fitness center..pool and outdoor patio very nice..hotel is near LAX and a large business area..but welcoming for pleasure stays as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Manager Drew Berry went above the call of duty for us regarding a personal matter ..he and his staff proved to be very trustworthy and friendly professionals..hotel very modern and clean..comfortable rooms and nice large fitness center..pool and outdoor patio very nice..hotel is near LAX and a large business area..but welcoming for pleasure stays as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r587641622-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>587641622</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I went to the Happy Hour at the Cambria, and was absolutely blown away by the level of professionalism and customer service demonstrated to me by the Bar Manager, Mark. He was very polite, fast in his service, and friendly in his demeanor. Mark is an excellent bar tender and was very knowledgeable and was able to make some stellar recommendations to me. I would go back to the Cambria because Mark made it a fun experience that left an impression.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I went to the Happy Hour at the Cambria, and was absolutely blown away by the level of professionalism and customer service demonstrated to me by the Bar Manager, Mark. He was very polite, fast in his service, and friendly in his demeanor. Mark is an excellent bar tender and was very knowledgeable and was able to make some stellar recommendations to me. I would go back to the Cambria because Mark made it a fun experience that left an impression.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r586312453-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>586312453</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Close to airport.</t>
+  </si>
+  <si>
+    <t>Free Shuttle to and from the airport.  A little difficult to get the shuttle from the airport as it is so busy at the airport.  We seemed to miss one of the shuttles and had to wait for the next round.  Helpful staff to get us into our room early after flight from Australia arrived at 0600 and check in was 3pm.  Offered coffee and just sat and waited. Room was ready by 1000 (we arrived at Cambria from airport at 0800).  The room was large with two queen beds.  Bathroom great with supplies.  Water hot.  Benches near coffee machine and by bed had cup rings that I just had to clean up. 
+Free Wifi. Happy hour in the bar from 4 - 7pm.  The bar menu was delicious especially the meatballs, homus toast and fried cauliflower.  The bar staff happy and attentive.  We stayed here on our way home back to Australia.  We had the breakfast this time - good value.  Cold Brew coffee and plenty hot and cold to choose from.  We also used the shuttle to the airport when we left both times.  We advised reception of the time we needed to be at the airport and bus arrived promptly.  10 minute trip to the airport.  We used Uber to visit Hollywood - $37.00 and returned from Beverly Hills $42.00 in peak hour.  Great stop for a night.  Too far from sights if you want to stay....Free Shuttle to and from the airport.  A little difficult to get the shuttle from the airport as it is so busy at the airport.  We seemed to miss one of the shuttles and had to wait for the next round.  Helpful staff to get us into our room early after flight from Australia arrived at 0600 and check in was 3pm.  Offered coffee and just sat and waited. Room was ready by 1000 (we arrived at Cambria from airport at 0800).  The room was large with two queen beds.  Bathroom great with supplies.  Water hot.  Benches near coffee machine and by bed had cup rings that I just had to clean up. Free Wifi. Happy hour in the bar from 4 - 7pm.  The bar menu was delicious especially the meatballs, homus toast and fried cauliflower.  The bar staff happy and attentive.  We stayed here on our way home back to Australia.  We had the breakfast this time - good value.  Cold Brew coffee and plenty hot and cold to choose from.  We also used the shuttle to the airport when we left both times.  We advised reception of the time we needed to be at the airport and bus arrived promptly.  10 minute trip to the airport.  We used Uber to visit Hollywood - $37.00 and returned from Beverly Hills $42.00 in peak hour.  Great stop for a night.  Too far from sights if you want to stay.  Appeared to be plenty of car parking around if you hired a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Free Shuttle to and from the airport.  A little difficult to get the shuttle from the airport as it is so busy at the airport.  We seemed to miss one of the shuttles and had to wait for the next round.  Helpful staff to get us into our room early after flight from Australia arrived at 0600 and check in was 3pm.  Offered coffee and just sat and waited. Room was ready by 1000 (we arrived at Cambria from airport at 0800).  The room was large with two queen beds.  Bathroom great with supplies.  Water hot.  Benches near coffee machine and by bed had cup rings that I just had to clean up. 
+Free Wifi. Happy hour in the bar from 4 - 7pm.  The bar menu was delicious especially the meatballs, homus toast and fried cauliflower.  The bar staff happy and attentive.  We stayed here on our way home back to Australia.  We had the breakfast this time - good value.  Cold Brew coffee and plenty hot and cold to choose from.  We also used the shuttle to the airport when we left both times.  We advised reception of the time we needed to be at the airport and bus arrived promptly.  10 minute trip to the airport.  We used Uber to visit Hollywood - $37.00 and returned from Beverly Hills $42.00 in peak hour.  Great stop for a night.  Too far from sights if you want to stay....Free Shuttle to and from the airport.  A little difficult to get the shuttle from the airport as it is so busy at the airport.  We seemed to miss one of the shuttles and had to wait for the next round.  Helpful staff to get us into our room early after flight from Australia arrived at 0600 and check in was 3pm.  Offered coffee and just sat and waited. Room was ready by 1000 (we arrived at Cambria from airport at 0800).  The room was large with two queen beds.  Bathroom great with supplies.  Water hot.  Benches near coffee machine and by bed had cup rings that I just had to clean up. Free Wifi. Happy hour in the bar from 4 - 7pm.  The bar menu was delicious especially the meatballs, homus toast and fried cauliflower.  The bar staff happy and attentive.  We stayed here on our way home back to Australia.  We had the breakfast this time - good value.  Cold Brew coffee and plenty hot and cold to choose from.  We also used the shuttle to the airport when we left both times.  We advised reception of the time we needed to be at the airport and bus arrived promptly.  10 minute trip to the airport.  We used Uber to visit Hollywood - $37.00 and returned from Beverly Hills $42.00 in peak hour.  Great stop for a night.  Too far from sights if you want to stay.  Appeared to be plenty of car parking around if you hired a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r581647893-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>581647893</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Cannot beat this hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights and It was hands down the best hotel experience I have ever had for the price. From the friendly staff at check-in, expeditious and thorough housekeeping, comfy bed, modern bathroom, location and price. You cannot beat this hotel. Thank you Cambria for making my trip to LA that much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights and It was hands down the best hotel experience I have ever had for the price. From the friendly staff at check-in, expeditious and thorough housekeeping, comfy bed, modern bathroom, location and price. You cannot beat this hotel. Thank you Cambria for making my trip to LA that much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r581613347-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>581613347</t>
+  </si>
+  <si>
+    <t>Modern hotel, convenient for LAX</t>
+  </si>
+  <si>
+    <t>We spent two nights here to meet up with family, and we enjoyed all aspects of our stay.  The hotel is very convenient for LAX, no more than a 10 minute drive, and with easy, free parking.  There is also a shuttle bus from the airport which runs every half an hour or so.  The hotel is in a fairly soul-less industrial park, but it's quiet and it's only a short drive to shops, bars, restaurants and supermarkets.  It's also not very far from the coast; we spent one morning on Manhattan Beach which was only about 15 minutes' drive away.
+The breakfast buffet was really very good - fantastic bacon! - and the staff were very attentive.  Breakfast isn't included though, although it was a fairly reasonable $12.95.  There is a bar which opens in the evenings and a small convenience facility selling drinks and snacks, but you'd need to go out to get some food or order something to be delivered as there is no restaurant.  
+We loved the pool area and spent one afternoon just relaxing on the patio.  The water was warm and the loungers are super comfy.  We didn't use the gym, so can't comment on that.
+The room was great - clean, modern and comfortable with huge king size bed.  We had a large walk-in shower in the bathroom.  Just one issue - the bathroom door is extremely thin, so you need to know...We spent two nights here to meet up with family, and we enjoyed all aspects of our stay.  The hotel is very convenient for LAX, no more than a 10 minute drive, and with easy, free parking.  There is also a shuttle bus from the airport which runs every half an hour or so.  The hotel is in a fairly soul-less industrial park, but it's quiet and it's only a short drive to shops, bars, restaurants and supermarkets.  It's also not very far from the coast; we spent one morning on Manhattan Beach which was only about 15 minutes' drive away.The breakfast buffet was really very good - fantastic bacon! - and the staff were very attentive.  Breakfast isn't included though, although it was a fairly reasonable $12.95.  There is a bar which opens in the evenings and a small convenience facility selling drinks and snacks, but you'd need to go out to get some food or order something to be delivered as there is no restaurant.  We loved the pool area and spent one afternoon just relaxing on the patio.  The water was warm and the loungers are super comfy.  We didn't use the gym, so can't comment on that.The room was great - clean, modern and comfortable with huge king size bed.  We had a large walk-in shower in the bathroom.  Just one issue - the bathroom door is extremely thin, so you need to know your room-mate very well, or not be easily embarrassed! I would happily stay here again on a trip to LA, especially if I wanted to be close to LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>We spent two nights here to meet up with family, and we enjoyed all aspects of our stay.  The hotel is very convenient for LAX, no more than a 10 minute drive, and with easy, free parking.  There is also a shuttle bus from the airport which runs every half an hour or so.  The hotel is in a fairly soul-less industrial park, but it's quiet and it's only a short drive to shops, bars, restaurants and supermarkets.  It's also not very far from the coast; we spent one morning on Manhattan Beach which was only about 15 minutes' drive away.
+The breakfast buffet was really very good - fantastic bacon! - and the staff were very attentive.  Breakfast isn't included though, although it was a fairly reasonable $12.95.  There is a bar which opens in the evenings and a small convenience facility selling drinks and snacks, but you'd need to go out to get some food or order something to be delivered as there is no restaurant.  
+We loved the pool area and spent one afternoon just relaxing on the patio.  The water was warm and the loungers are super comfy.  We didn't use the gym, so can't comment on that.
+The room was great - clean, modern and comfortable with huge king size bed.  We had a large walk-in shower in the bathroom.  Just one issue - the bathroom door is extremely thin, so you need to know...We spent two nights here to meet up with family, and we enjoyed all aspects of our stay.  The hotel is very convenient for LAX, no more than a 10 minute drive, and with easy, free parking.  There is also a shuttle bus from the airport which runs every half an hour or so.  The hotel is in a fairly soul-less industrial park, but it's quiet and it's only a short drive to shops, bars, restaurants and supermarkets.  It's also not very far from the coast; we spent one morning on Manhattan Beach which was only about 15 minutes' drive away.The breakfast buffet was really very good - fantastic bacon! - and the staff were very attentive.  Breakfast isn't included though, although it was a fairly reasonable $12.95.  There is a bar which opens in the evenings and a small convenience facility selling drinks and snacks, but you'd need to go out to get some food or order something to be delivered as there is no restaurant.  We loved the pool area and spent one afternoon just relaxing on the patio.  The water was warm and the loungers are super comfy.  We didn't use the gym, so can't comment on that.The room was great - clean, modern and comfortable with huge king size bed.  We had a large walk-in shower in the bathroom.  Just one issue - the bathroom door is extremely thin, so you need to know your room-mate very well, or not be easily embarrassed! I would happily stay here again on a trip to LA, especially if I wanted to be close to LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r581497443-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>581497443</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>A fine hotel near LAX</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights/days at the Cambria in Dec., 2017.  It is about an 8 minute drive directly south of LAX in El Segundo in a quiet office-bod area.  It's a moderately sized, very new, modern  and well appointed hotel with reasonable prices and a very helpful, friendly staff.  I didn't take advantage of the various amenities such as the gym, pool, etc. but they're available-it's a block to two from many more restaurants on Sepulveda Blvd.The Cambria has a particular amenity now rarely found at LA hotels...free, spacious parking.  Important as most hotels sock you for up to $30 per day for parking in this car-required city.  I made some recommendations upon departing to the hotel staff including installing grab bars in the bathroom shower - important for older-aged guests.I will stay there again and I heartily recommend the Cambria to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights/days at the Cambria in Dec., 2017.  It is about an 8 minute drive directly south of LAX in El Segundo in a quiet office-bod area.  It's a moderately sized, very new, modern  and well appointed hotel with reasonable prices and a very helpful, friendly staff.  I didn't take advantage of the various amenities such as the gym, pool, etc. but they're available-it's a block to two from many more restaurants on Sepulveda Blvd.The Cambria has a particular amenity now rarely found at LA hotels...free, spacious parking.  Important as most hotels sock you for up to $30 per day for parking in this car-required city.  I made some recommendations upon departing to the hotel staff including installing grab bars in the bathroom shower - important for older-aged guests.I will stay there again and I heartily recommend the Cambria to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r579554245-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>579554245</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Mark the bartender is excellent, great spot</t>
+  </si>
+  <si>
+    <t>Stayed one night for a medical boards examination, and had a fantastic time.  The hotel is clean, the staff is courteous, and the place has an overall professional feel.  Special shout out to Mark the bartender, the guy is fantastic.  Excellent drinks, excellent conversations.  You have to check it out and have a drink.  I'll definitely go back.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Stayed one night for a medical boards examination, and had a fantastic time.  The hotel is clean, the staff is courteous, and the place has an overall professional feel.  Special shout out to Mark the bartender, the guy is fantastic.  Excellent drinks, excellent conversations.  You have to check it out and have a drink.  I'll definitely go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r577635292-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>577635292</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel close to LAX</t>
+  </si>
+  <si>
+    <t>This is a very nice business-oriented hotel conveniently located a stones throw from LAX. The hotel is very modern with all sorts of mobile technology, a large TV, Netflix and plenty of places to “plug-in”. The bar and restaurant are a nice added convenience. The fitness center is average - with a few cardio machines but very limited weights. The pool is tiny (don’t come for the pool). The only negative for me was the very loud blaring music pumping in the lobby and outdoor courtyard. The music was so loud in the courtyard that I had to call the front desk and ask them to turn it off so I could sleep (which they kindly did). All in all a nice hotel for business travelers to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice business-oriented hotel conveniently located a stones throw from LAX. The hotel is very modern with all sorts of mobile technology, a large TV, Netflix and plenty of places to “plug-in”. The bar and restaurant are a nice added convenience. The fitness center is average - with a few cardio machines but very limited weights. The pool is tiny (don’t come for the pool). The only negative for me was the very loud blaring music pumping in the lobby and outdoor courtyard. The music was so loud in the courtyard that I had to call the front desk and ask them to turn it off so I could sleep (which they kindly did). All in all a nice hotel for business travelers to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r576102417-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>576102417</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>I'm not sold on this property</t>
+  </si>
+  <si>
+    <t>My favorite things about this hotel are the free parking, very large TV, and comfortable bed. The location isn't great...it's in an office park a good walk from most things. The bathroom, while nice was not designed very well. The half glass wall shower enclosure is not sufficient enough to keep the water from splashing onto the main bathroom floor. The door to the bathroom slides closed, but not fully private. The room was not cleaned very well: Scuff marks on the tile floor entry way, dirty furniture. Finally, the free airport shuttle service was an awful experience. Cambria shares a hotel shuttle with 5 or 6 others in the area. I waited 25 minutes for it even though I reserved it the day prior. Overall I would only stay here if the price was under $120 a night. There are TONS of very nice, very affordable hotels around LAX. This one just didn't stand out to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>My favorite things about this hotel are the free parking, very large TV, and comfortable bed. The location isn't great...it's in an office park a good walk from most things. The bathroom, while nice was not designed very well. The half glass wall shower enclosure is not sufficient enough to keep the water from splashing onto the main bathroom floor. The door to the bathroom slides closed, but not fully private. The room was not cleaned very well: Scuff marks on the tile floor entry way, dirty furniture. Finally, the free airport shuttle service was an awful experience. Cambria shares a hotel shuttle with 5 or 6 others in the area. I waited 25 minutes for it even though I reserved it the day prior. Overall I would only stay here if the price was under $120 a night. There are TONS of very nice, very affordable hotels around LAX. This one just didn't stand out to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r574269276-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>574269276</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Been here twice now and wouldn’t stay at a different hotel in this area. Not only are there great room, food, accommodation but the bar tender Mark who is alone most nights really doesn’t make it seem that way. Mark is one of the main reason I came back to this hotel and plan to come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Been here twice now and wouldn’t stay at a different hotel in this area. Not only are there great room, food, accommodation but the bar tender Mark who is alone most nights really doesn’t make it seem that way. Mark is one of the main reason I came back to this hotel and plan to come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r573191873-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>573191873</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Comfortable hotel</t>
+  </si>
+  <si>
+    <t>This is a good hotel in a convenient position close to Los Angeles airport and easy for sightseeing. There is plenty of car parking space.The reception staff were friendly and helpful. Our rooms were comfortable and well equipped.The breakfast was good and it is also possible to get an evening meal. The menu is not big but there was enough choice for us all.The children were pleased to see a swimming pool but sadly it was too cold. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a good hotel in a convenient position close to Los Angeles airport and easy for sightseeing. There is plenty of car parking space.The reception staff were friendly and helpful. Our rooms were comfortable and well equipped.The breakfast was good and it is also possible to get an evening meal. The menu is not big but there was enough choice for us all.The children were pleased to see a swimming pool but sadly it was too cold. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r572772956-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>572772956</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>We will be back soon!</t>
+  </si>
+  <si>
+    <t>Stayed three nights in a King Suite on the 4th floor.  Very quiet. Super comfy bed, lovely linen.  Big TV, lots of channels.  Great corner sofa.  Block out roller blinds, and nice sheer curtains.  Big desk. Plenty of charging points. Good lighting. Laptop sized safe in the wardrobe.  Small frig. Simple pod-style coffee maker (with china cups). HUGE bathroom, excellent water pressure. Very clean. Self service laundry, one washing machine and one dryer, $1.75 for each machine.  Plenty of free parking. Free Internet was very fast. Very efficient air conditioning too. The only minor negative - I would have liked a little more drawer space. 
+At check-in I was offered points or a beverage in the bar.  (A drink sounded perfect). Then I was given a really cute porcelain coaster to present to the barman who then signs the back of it, and gives it back as a memento.  Really nice touch. Comfortable and spacious bar, tasty snack and dinner menu. 
+And the staff...  We have a reservation for later in the year, and I asked Teresa (who was amazing)  at the front desk if it was possible to view a Tower Room.  She was unable to find another staff member to escort me to view the room immediately,  but as the Manager was nearby, he so kindly stepped up and offered to accompany me.  I was really impressed.  Another young man at the front desk (sorry, I didn't catch...Stayed three nights in a King Suite on the 4th floor.  Very quiet. Super comfy bed, lovely linen.  Big TV, lots of channels.  Great corner sofa.  Block out roller blinds, and nice sheer curtains.  Big desk. Plenty of charging points. Good lighting. Laptop sized safe in the wardrobe.  Small frig. Simple pod-style coffee maker (with china cups). HUGE bathroom, excellent water pressure. Very clean. Self service laundry, one washing machine and one dryer, $1.75 for each machine.  Plenty of free parking. Free Internet was very fast. Very efficient air conditioning too. The only minor negative - I would have liked a little more drawer space. At check-in I was offered points or a beverage in the bar.  (A drink sounded perfect). Then I was given a really cute porcelain coaster to present to the barman who then signs the back of it, and gives it back as a memento.  Really nice touch. Comfortable and spacious bar, tasty snack and dinner menu. And the staff...  We have a reservation for later in the year, and I asked Teresa (who was amazing)  at the front desk if it was possible to view a Tower Room.  She was unable to find another staff member to escort me to view the room immediately,  but as the Manager was nearby, he so kindly stepped up and offered to accompany me.  I was really impressed.  Another young man at the front desk (sorry, I didn't catch his name) was also extremely helpful and friendly.  It makes a big difference when the staff acknowledge you when you are walking through the reception area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Stayed three nights in a King Suite on the 4th floor.  Very quiet. Super comfy bed, lovely linen.  Big TV, lots of channels.  Great corner sofa.  Block out roller blinds, and nice sheer curtains.  Big desk. Plenty of charging points. Good lighting. Laptop sized safe in the wardrobe.  Small frig. Simple pod-style coffee maker (with china cups). HUGE bathroom, excellent water pressure. Very clean. Self service laundry, one washing machine and one dryer, $1.75 for each machine.  Plenty of free parking. Free Internet was very fast. Very efficient air conditioning too. The only minor negative - I would have liked a little more drawer space. 
+At check-in I was offered points or a beverage in the bar.  (A drink sounded perfect). Then I was given a really cute porcelain coaster to present to the barman who then signs the back of it, and gives it back as a memento.  Really nice touch. Comfortable and spacious bar, tasty snack and dinner menu. 
+And the staff...  We have a reservation for later in the year, and I asked Teresa (who was amazing)  at the front desk if it was possible to view a Tower Room.  She was unable to find another staff member to escort me to view the room immediately,  but as the Manager was nearby, he so kindly stepped up and offered to accompany me.  I was really impressed.  Another young man at the front desk (sorry, I didn't catch...Stayed three nights in a King Suite on the 4th floor.  Very quiet. Super comfy bed, lovely linen.  Big TV, lots of channels.  Great corner sofa.  Block out roller blinds, and nice sheer curtains.  Big desk. Plenty of charging points. Good lighting. Laptop sized safe in the wardrobe.  Small frig. Simple pod-style coffee maker (with china cups). HUGE bathroom, excellent water pressure. Very clean. Self service laundry, one washing machine and one dryer, $1.75 for each machine.  Plenty of free parking. Free Internet was very fast. Very efficient air conditioning too. The only minor negative - I would have liked a little more drawer space. At check-in I was offered points or a beverage in the bar.  (A drink sounded perfect). Then I was given a really cute porcelain coaster to present to the barman who then signs the back of it, and gives it back as a memento.  Really nice touch. Comfortable and spacious bar, tasty snack and dinner menu. And the staff...  We have a reservation for later in the year, and I asked Teresa (who was amazing)  at the front desk if it was possible to view a Tower Room.  She was unable to find another staff member to escort me to view the room immediately,  but as the Manager was nearby, he so kindly stepped up and offered to accompany me.  I was really impressed.  Another young man at the front desk (sorry, I didn't catch his name) was also extremely helpful and friendly.  It makes a big difference when the staff acknowledge you when you are walking through the reception area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r570582090-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>570582090</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>my new "go-to" hotel by LAX</t>
+  </si>
+  <si>
+    <t>This is a very clean and modern property. It's brand new, and I found the staff to be friendly and helpful. I was given the choice of either a free drink or 500 points for my stay...and of course, I had a drink...).The Wifi is strong and fast, and included with your stay. Have stayed twice now, will definitely use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>953drew, General Manager at Cambria Hotel LAX, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>This is a very clean and modern property. It's brand new, and I found the staff to be friendly and helpful. I was given the choice of either a free drink or 500 points for my stay...and of course, I had a drink...).The Wifi is strong and fast, and included with your stay. Have stayed twice now, will definitely use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r570253524-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>570253524</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Nice stay for the price</t>
+  </si>
+  <si>
+    <t>My wife and I went out to visit our oldest son who lives in the area, and I am always startled at the cost of even basic hotels. I usually stay at a Marriott or Hilton branded hotel, but even open to ones like Holiday Inn Express.  The most reasonable one we found was Cambria, which is a Choice hotel. It was modern, clean, good Internet and lots of USB plugs in open areas to charge phones and such.Only think that I wish was different is breakfast.... I am used to most of the hotels of that type having a free breakfast, but they charge $12.95. They did have a nice bar, back patio and pool as well. All in all, I felt it was a good value so I gave it 4 starsMoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I went out to visit our oldest son who lives in the area, and I am always startled at the cost of even basic hotels. I usually stay at a Marriott or Hilton branded hotel, but even open to ones like Holiday Inn Express.  The most reasonable one we found was Cambria, which is a Choice hotel. It was modern, clean, good Internet and lots of USB plugs in open areas to charge phones and such.Only think that I wish was different is breakfast.... I am used to most of the hotels of that type having a free breakfast, but they charge $12.95. They did have a nice bar, back patio and pool as well. All in all, I felt it was a good value so I gave it 4 starsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r568196842-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>568196842</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>AWESOME BARTENDER! MARK IS A ROCK STAR!</t>
+  </si>
+  <si>
+    <t>After an extra long day of travel Mark kept the bar open an hour late and served us our complimentary drink with a smile.  Love love love this hotel!  Great value and excellent for business travel.  Will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>After an extra long day of travel Mark kept the bar open an hour late and served us our complimentary drink with a smile.  Love love love this hotel!  Great value and excellent for business travel.  Will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r566388450-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>566388450</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t>My review says I stayed here in March but truth be told my work has brought me to El Segundo 5 times and every time I've stayed here. Cambria has been a lifesaver. The hotel is super comfortable and fantastic in so many big and little ways; the rooms are super clean, the shower has great pressure, the gym and pool are perfect, I can always rely on their kitchen, being able to do laundry means I can pack lightly, walls are well insulated for a light sleeper like me and most importantly is the staff!! Amazing folks across the board. Susie, Michelle, Eddie, Moneret and a few others I feel ashamed to have forgotten their name are always at the front to greet you with a smile and incredibly attentive. Mark at the bar is the best - knows my name, knows what I like from the menu and always ready with a joke to help me unwind after a long day.Can't say enough about this place and the people here to make your stay great! Come down, stay a few nights and you'll see what I'm saying.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, General Manager at Cambria Hotel LAX, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>My review says I stayed here in March but truth be told my work has brought me to El Segundo 5 times and every time I've stayed here. Cambria has been a lifesaver. The hotel is super comfortable and fantastic in so many big and little ways; the rooms are super clean, the shower has great pressure, the gym and pool are perfect, I can always rely on their kitchen, being able to do laundry means I can pack lightly, walls are well insulated for a light sleeper like me and most importantly is the staff!! Amazing folks across the board. Susie, Michelle, Eddie, Moneret and a few others I feel ashamed to have forgotten their name are always at the front to greet you with a smile and incredibly attentive. Mark at the bar is the best - knows my name, knows what I like from the menu and always ready with a joke to help me unwind after a long day.Can't say enough about this place and the people here to make your stay great! Come down, stay a few nights and you'll see what I'm saying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r564155048-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>564155048</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Great LAX hotel</t>
+  </si>
+  <si>
+    <t>Spent 2 nights here on a work trip. Hotel relatively new andeasy access by shuttle from LAX- only tip is to call the hotel for your shuttle when you have your luggage (and are making your way to the pick up point) as while it regularly does the airport run; the van is part of the car park loop, and it may not always stop. I saw 2 vans go past me which was a pain after arriving late evening into LAX. 
+The hotel staff at the front desk were fantastic and very helpful. There is a guest laundry on the ground floor (near the gym). It is free but you need to buy the soap (available on site and not expensive either). 
+The room was huge- I had a corner suite and the amenities were great. Very comfortable for work. The bathroom is well appointed and the bluetooth mirror was a fun surprise! quite a novelty really!
+The only thing I would point out to management is the need for an extra towel hook or two in the bathroom as the rail under the bathroom counter, while reasonable, wasn't the best place for the bath towel to hang. 
+The bar and restaurant menu was pretty good and not overpriced as is normally the case at an airport hotel (or any other hotel for that matter). I enjoyed one of the tasty flatbreads with a glass of wine at Happy...Spent 2 nights here on a work trip. Hotel relatively new andeasy access by shuttle from LAX- only tip is to call the hotel for your shuttle when you have your luggage (and are making your way to the pick up point) as while it regularly does the airport run; the van is part of the car park loop, and it may not always stop. I saw 2 vans go past me which was a pain after arriving late evening into LAX. The hotel staff at the front desk were fantastic and very helpful. There is a guest laundry on the ground floor (near the gym). It is free but you need to buy the soap (available on site and not expensive either). The room was huge- I had a corner suite and the amenities were great. Very comfortable for work. The bathroom is well appointed and the bluetooth mirror was a fun surprise! quite a novelty really!The only thing I would point out to management is the need for an extra towel hook or two in the bathroom as the rail under the bathroom counter, while reasonable, wasn't the best place for the bath towel to hang. The bar and restaurant menu was pretty good and not overpriced as is normally the case at an airport hotel (or any other hotel for that matter). I enjoyed one of the tasty flatbreads with a glass of wine at Happy hour and it was a bargain. There were quite a few people travelling for business and I spoke to one person who said they wouldn't stay anywhere else in the area. It was clean, convenient and well-priced. The lobby is quite spacious and good if you have a casual meeting too. The hotel is also very close to Manhattan Beach and shopping.You will need to book the shuttle to return to the airport, but just see the front desk to do this. It will take 10-15mins max (depending on no. stops en route) to get to the airport, so factor this into your planning. I'll definitely be back :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Spent 2 nights here on a work trip. Hotel relatively new andeasy access by shuttle from LAX- only tip is to call the hotel for your shuttle when you have your luggage (and are making your way to the pick up point) as while it regularly does the airport run; the van is part of the car park loop, and it may not always stop. I saw 2 vans go past me which was a pain after arriving late evening into LAX. 
+The hotel staff at the front desk were fantastic and very helpful. There is a guest laundry on the ground floor (near the gym). It is free but you need to buy the soap (available on site and not expensive either). 
+The room was huge- I had a corner suite and the amenities were great. Very comfortable for work. The bathroom is well appointed and the bluetooth mirror was a fun surprise! quite a novelty really!
+The only thing I would point out to management is the need for an extra towel hook or two in the bathroom as the rail under the bathroom counter, while reasonable, wasn't the best place for the bath towel to hang. 
+The bar and restaurant menu was pretty good and not overpriced as is normally the case at an airport hotel (or any other hotel for that matter). I enjoyed one of the tasty flatbreads with a glass of wine at Happy...Spent 2 nights here on a work trip. Hotel relatively new andeasy access by shuttle from LAX- only tip is to call the hotel for your shuttle when you have your luggage (and are making your way to the pick up point) as while it regularly does the airport run; the van is part of the car park loop, and it may not always stop. I saw 2 vans go past me which was a pain after arriving late evening into LAX. The hotel staff at the front desk were fantastic and very helpful. There is a guest laundry on the ground floor (near the gym). It is free but you need to buy the soap (available on site and not expensive either). The room was huge- I had a corner suite and the amenities were great. Very comfortable for work. The bathroom is well appointed and the bluetooth mirror was a fun surprise! quite a novelty really!The only thing I would point out to management is the need for an extra towel hook or two in the bathroom as the rail under the bathroom counter, while reasonable, wasn't the best place for the bath towel to hang. The bar and restaurant menu was pretty good and not overpriced as is normally the case at an airport hotel (or any other hotel for that matter). I enjoyed one of the tasty flatbreads with a glass of wine at Happy hour and it was a bargain. There were quite a few people travelling for business and I spoke to one person who said they wouldn't stay anywhere else in the area. It was clean, convenient and well-priced. The lobby is quite spacious and good if you have a casual meeting too. The hotel is also very close to Manhattan Beach and shopping.You will need to book the shuttle to return to the airport, but just see the front desk to do this. It will take 10-15mins max (depending on no. stops en route) to get to the airport, so factor this into your planning. I'll definitely be back :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r560777650-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>560777650</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Short Break</t>
+  </si>
+  <si>
+    <t>Excellent staff made us feel very welcome nothing was too much trouble.Beautiful modern decor we had a thoroughly enjoyable and relaxing five night stay. The outdoor terrace with pool and fire pit is a delight. Dedicated office area free of charge is a nice touch along with the gym. The buffet breakfast is more than adequate fresh and tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Excellent staff made us feel very welcome nothing was too much trouble.Beautiful modern decor we had a thoroughly enjoyable and relaxing five night stay. The outdoor terrace with pool and fire pit is a delight. Dedicated office area free of charge is a nice touch along with the gym. The buffet breakfast is more than adequate fresh and tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r559497950-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>559497950</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Best LAX hotel!!!</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel the night before a flight, finding it on Priceline. I was pleasantly surprised at how nice it was and how comfortable the night ended up being.A very modern hotel. Very clean. Very quiet.  The only bummer is that there is no hot tub, which seems off, considering the quality of the hotel. Suzy at the front desk was also extremely helpful and VERY sweet, allowing me a late check out at 2:00, so I didn't have to sit at LAX for an extra 3hours before my flight...it was above and beyond normal customer service I have received in hotels. Thank you Suzy!!I will DEFINITELY stay at this location again in the future. Its also about 9 mins to LAX and 3min drive to food and shopping.  Also-FREE PARKING!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel the night before a flight, finding it on Priceline. I was pleasantly surprised at how nice it was and how comfortable the night ended up being.A very modern hotel. Very clean. Very quiet.  The only bummer is that there is no hot tub, which seems off, considering the quality of the hotel. Suzy at the front desk was also extremely helpful and VERY sweet, allowing me a late check out at 2:00, so I didn't have to sit at LAX for an extra 3hours before my flight...it was above and beyond normal customer service I have received in hotels. Thank you Suzy!!I will DEFINITELY stay at this location again in the future. Its also about 9 mins to LAX and 3min drive to food and shopping.  Also-FREE PARKING!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r559458090-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>559458090</t>
+  </si>
+  <si>
+    <t>Brand new small boutique hotel with excellent personal service</t>
+  </si>
+  <si>
+    <t>I've stayed at this Cambria property for more than 6 week in total. Less than a year old, the property is well appointed and modern. Super close to LAX airport with a free shuttle.Nice pool and large modern gym. Unfortunately no hot tub, but the outdoor area is beautiful and features a large fire you can sit around in the mild California evenings. Small bar and restaurant is open for breakfast and dinner. Kitchen and bar management is professional and accommodating. Housekeeping and front desk provide a level of personal service you don't see outside of a big city hotel at 4 times the cost. My absolute favorite hotel in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at this Cambria property for more than 6 week in total. Less than a year old, the property is well appointed and modern. Super close to LAX airport with a free shuttle.Nice pool and large modern gym. Unfortunately no hot tub, but the outdoor area is beautiful and features a large fire you can sit around in the mild California evenings. Small bar and restaurant is open for breakfast and dinner. Kitchen and bar management is professional and accommodating. Housekeeping and front desk provide a level of personal service you don't see outside of a big city hotel at 4 times the cost. My absolute favorite hotel in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r559188173-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>559188173</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>FIRST CLASS SERVICE</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 5 days. We did have trouble finding it as it's entrance is in a car park but if you look for ' Northrop Grumman', follow that as they share a carpark. The lady on reception was extremely helpful and patient with me when i kept calling though. Our room was lovely, clean and spacious and i had a wonderful nights sleep each night. The breakfast was very nice with a selection of fruit, bacon, bagels, yogurts, cereals etc and our burger in the restaurant was delicious.Lots of attractions are within 1 hour driving distance or the metro is only a 5 min walk. Once we'd left my partner realized he had left some belongings in our room. Yet again the staff were very helpful and these were retrived very quickly. When we picked our belongings up, we were on our way to Las Vegas so had a 4 hour drive ahead. The guy on reception very kindly gave us some free drinks for the journey which was the perfect final touch. Thanks for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 5 days. We did have trouble finding it as it's entrance is in a car park but if you look for ' Northrop Grumman', follow that as they share a carpark. The lady on reception was extremely helpful and patient with me when i kept calling though. Our room was lovely, clean and spacious and i had a wonderful nights sleep each night. The breakfast was very nice with a selection of fruit, bacon, bagels, yogurts, cereals etc and our burger in the restaurant was delicious.Lots of attractions are within 1 hour driving distance or the metro is only a 5 min walk. Once we'd left my partner realized he had left some belongings in our room. Yet again the staff were very helpful and these were retrived very quickly. When we picked our belongings up, we were on our way to Las Vegas so had a 4 hour drive ahead. The guy on reception very kindly gave us some free drinks for the journey which was the perfect final touch. Thanks for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r555717759-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>555717759</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>A more upscale Choice Hotel</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Cambria.  We picked it because we were able to use Choice Hotel points and because the parking is free. We hadn't stayed in El Segundo in quite awhile and were very surprised at how much most of the hotels are charging for parking. The hotel is very clean and modern.  We had drinks and snacks in the bar area, and ate breakfast there the next morning.  The breakfast is not complimentary, but the price was reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Cambria.  We picked it because we were able to use Choice Hotel points and because the parking is free. We hadn't stayed in El Segundo in quite awhile and were very surprised at how much most of the hotels are charging for parking. The hotel is very clean and modern.  We had drinks and snacks in the bar area, and ate breakfast there the next morning.  The breakfast is not complimentary, but the price was reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r555282538-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>555282538</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>What a jewel</t>
+  </si>
+  <si>
+    <t>We visited kids and grandkids during Christmas and stumbled across the newly constructed Cambria on El Segundo Blvd by LAX. great location great place and great prices. A must stay place if kicking sand on all the best beaches in the area. We loved it and will definitely stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>We visited kids and grandkids during Christmas and stumbled across the newly constructed Cambria on El Segundo Blvd by LAX. great location great place and great prices. A must stay place if kicking sand on all the best beaches in the area. We loved it and will definitely stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r553260786-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>553260786</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Good, modern hotel</t>
+  </si>
+  <si>
+    <t>We stayed here on a 3-day layover to Maui, and we couldn't have been more happy with our stay. Now, I'll admit, the property's location is a bit odd -- sandwiched in between office buildings -- but the amenities are on-part with some of the mid-range, business class hotels we've stayed at. What we loved:- When you walk in, and to your left, there is' a hot spot area where you can plug in your laptops and get to work. The floor to ceiling windows, and the natural light, is amazing. There's also a bar in the lobby -- which, after a long travel day, we gladly reveled in two drinks before sitting at the outdoor fire pit and then retreating to our rooms. Love the room. It's small, but it has everything you need. We loved the bluetooth bathroom mirror, and we definitely played our music through it!Breakfast was also good. Would we stay here again -- absolutely. Since you have to drive everywhere in LA, Cambria offers a nice respite from the crazy hustle and bustle -- but is still close enough that you can touch it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here on a 3-day layover to Maui, and we couldn't have been more happy with our stay. Now, I'll admit, the property's location is a bit odd -- sandwiched in between office buildings -- but the amenities are on-part with some of the mid-range, business class hotels we've stayed at. What we loved:- When you walk in, and to your left, there is' a hot spot area where you can plug in your laptops and get to work. The floor to ceiling windows, and the natural light, is amazing. There's also a bar in the lobby -- which, after a long travel day, we gladly reveled in two drinks before sitting at the outdoor fire pit and then retreating to our rooms. Love the room. It's small, but it has everything you need. We loved the bluetooth bathroom mirror, and we definitely played our music through it!Breakfast was also good. Would we stay here again -- absolutely. Since you have to drive everywhere in LA, Cambria offers a nice respite from the crazy hustle and bustle -- but is still close enough that you can touch it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r549214661-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>549214661</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Not really a hotel, more of a "room rental"</t>
+  </si>
+  <si>
+    <t>My wife and i booked here as we were departing LAX next morning.
+Cambria is located amongst dull grey office blocks surround by run down industrial units. The interior of this hotel is very much like being in an office block.
+The place is clean and the bed was comfortable, other than that it was very dissapointing.
+Reception was unnfriendly, unhelpfull and misleading. There was no assistance with our luggage to or from the room, just a "do it yourself trolley ".
+The only food available at lunch time was from vending machines.
+Reception told us it was a short walk to restaurants,  we set off following the map provided and found ourselves amongst run down and closed industrial units walking along walkways overgrown with weeds. It could have been a dangerous situation. A quick call to uber and a surprised, friendly drive delivered us to a nice restaurant. NB there is no decent food within reasonable walking distance.
+We are both able bodied but had a room designed for wheelchairs.
+The shower floods the bathroom floor making it slippery and dangerous. The manager was called to view it and provided 8 large bath towels which covered the floor. Problem was that the floor slopes AWAY from the drain hole!!.
+And so to dinner 😕. Very poor choice, no room service, we elected to eat in our room as the cafe area is simmilar to what most people have at...My wife and i booked here as we were departing LAX next morning.Cambria is located amongst dull grey office blocks surround by run down industrial units. The interior of this hotel is very much like being in an office block.The place is clean and the bed was comfortable, other than that it was very dissapointing.Reception was unnfriendly, unhelpfull and misleading. There was no assistance with our luggage to or from the room, just a "do it yourself trolley ".The only food available at lunch time was from vending machines.Reception told us it was a short walk to restaurants,  we set off following the map provided and found ourselves amongst run down and closed industrial units walking along walkways overgrown with weeds. It could have been a dangerous situation. A quick call to uber and a surprised, friendly drive delivered us to a nice restaurant. NB there is no decent food within reasonable walking distance.We are both able bodied but had a room designed for wheelchairs.The shower floods the bathroom floor making it slippery and dangerous. The manager was called to view it and provided 8 large bath towels which covered the floor. Problem was that the floor slopes AWAY from the drain hole!!.And so to dinner . Very poor choice, no room service, we elected to eat in our room as the cafe area is simmilar to what most people have at work. Our so call meal was handed to us in plastic boxes, in a paper carry bag with cheap plastic utensils. Not what we were hoping for on our final night in USA. The shuttle to LAX was an old bus with a friendly helpfull driver. It called at other hotels en-route.After our complaints about the hotels service, reception, lack of facilities etc the manager reduced our bill slightly, but people still need to know what to expect from this establishment. All in all a very dissapointing experience. If you a looking for a real, traditional hotel this is definitely not it. It is really just a "rent a room"MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>My wife and i booked here as we were departing LAX next morning.
+Cambria is located amongst dull grey office blocks surround by run down industrial units. The interior of this hotel is very much like being in an office block.
+The place is clean and the bed was comfortable, other than that it was very dissapointing.
+Reception was unnfriendly, unhelpfull and misleading. There was no assistance with our luggage to or from the room, just a "do it yourself trolley ".
+The only food available at lunch time was from vending machines.
+Reception told us it was a short walk to restaurants,  we set off following the map provided and found ourselves amongst run down and closed industrial units walking along walkways overgrown with weeds. It could have been a dangerous situation. A quick call to uber and a surprised, friendly drive delivered us to a nice restaurant. NB there is no decent food within reasonable walking distance.
+We are both able bodied but had a room designed for wheelchairs.
+The shower floods the bathroom floor making it slippery and dangerous. The manager was called to view it and provided 8 large bath towels which covered the floor. Problem was that the floor slopes AWAY from the drain hole!!.
+And so to dinner 😕. Very poor choice, no room service, we elected to eat in our room as the cafe area is simmilar to what most people have at...My wife and i booked here as we were departing LAX next morning.Cambria is located amongst dull grey office blocks surround by run down industrial units. The interior of this hotel is very much like being in an office block.The place is clean and the bed was comfortable, other than that it was very dissapointing.Reception was unnfriendly, unhelpfull and misleading. There was no assistance with our luggage to or from the room, just a "do it yourself trolley ".The only food available at lunch time was from vending machines.Reception told us it was a short walk to restaurants,  we set off following the map provided and found ourselves amongst run down and closed industrial units walking along walkways overgrown with weeds. It could have been a dangerous situation. A quick call to uber and a surprised, friendly drive delivered us to a nice restaurant. NB there is no decent food within reasonable walking distance.We are both able bodied but had a room designed for wheelchairs.The shower floods the bathroom floor making it slippery and dangerous. The manager was called to view it and provided 8 large bath towels which covered the floor. Problem was that the floor slopes AWAY from the drain hole!!.And so to dinner . Very poor choice, no room service, we elected to eat in our room as the cafe area is simmilar to what most people have at work. Our so call meal was handed to us in plastic boxes, in a paper carry bag with cheap plastic utensils. Not what we were hoping for on our final night in USA. The shuttle to LAX was an old bus with a friendly helpfull driver. It called at other hotels en-route.After our complaints about the hotels service, reception, lack of facilities etc the manager reduced our bill slightly, but people still need to know what to expect from this establishment. All in all a very dissapointing experience. If you a looking for a real, traditional hotel this is definitely not it. It is really just a "rent a room"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r548742087-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>548742087</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really nice near LAX </t>
+  </si>
+  <si>
+    <t>Stayed the night before an early flight. Was pleasantly surprised by nice room, friendly staff, even a complimentary drink offered at check in. The only negative was the people directly above us who commenced to party at 2:00 AM. I contacted front desk several times. They quieted down a bit, then start right up again!!! Not the Cambria fault, just inconsiderate people. I did offer them a free wake up call at 5:00 when we left MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed the night before an early flight. Was pleasantly surprised by nice room, friendly staff, even a complimentary drink offered at check in. The only negative was the people directly above us who commenced to party at 2:00 AM. I contacted front desk several times. They quieted down a bit, then start right up again!!! Not the Cambria fault, just inconsiderate people. I did offer them a free wake up call at 5:00 when we left More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r547899685-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>547899685</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Very good place to stay! 😊</t>
+  </si>
+  <si>
+    <t>It's Very new and have modern designed rooms. Great staff in general and at the front desk, special thanks to Gisamy for introducing me to Susy the front desk supervisor who was very helpfull in my decision of nearby eating places Highly recommended !MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>It's Very new and have modern designed rooms. Great staff in general and at the front desk, special thanks to Gisamy for introducing me to Susy the front desk supervisor who was very helpfull in my decision of nearby eating places Highly recommended !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r545305510-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>545305510</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Best stay!</t>
+  </si>
+  <si>
+    <t>Well designed rooms! Very quiet and stylish down to little details not to mention cleanliness. The locations is rather convenient as well. I only stayed 1 night, but it was the quietest stay I had for a long time. Many hotels that I had stayed at have noise issues from corridors and windows, but no issue at Cambria. The lighting in the room was well thought out as well. No dark rooms as some of the other business hotels tend to be. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Well designed rooms! Very quiet and stylish down to little details not to mention cleanliness. The locations is rather convenient as well. I only stayed 1 night, but it was the quietest stay I had for a long time. Many hotels that I had stayed at have noise issues from corridors and windows, but no issue at Cambria. The lighting in the room was well thought out as well. No dark rooms as some of the other business hotels tend to be. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r544830225-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>544830225</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a night away from home </t>
+  </si>
+  <si>
+    <t>I just wanna say that Monroe and Teresa were very helpful and made our stay very wonderful. They gave the best customer service. I would definitely stay here again. I also liked how it was very low-key lol. Amazing hotel for a very great price. MoreShow less</t>
+  </si>
+  <si>
+    <t>I just wanna say that Monroe and Teresa were very helpful and made our stay very wonderful. They gave the best customer service. I would definitely stay here again. I also liked how it was very low-key lol. Amazing hotel for a very great price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r544458848-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>544458848</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>LOVE this hotel! Highly recommend!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for a week. We absolutely loved everything about it. The staff were all very nice and helpful. The room was so comfortable, spacious and up to date. The bathroom had an electric mirror that connects to Bluetooth so you can play music, very cool. Our room and entire hotel were very clean. We checked in on thanksgiving day so we were greeted with a welcome bag filled with a delicious blueberry muffin and sparkling cider. Convenient location to airport, free parking, and a shuttle to the airport. The bed and pillows were SO comfortable. Best thing to come back to after a long day of exploring. The lady that checked us in even mentioned that she saw we were going to be staying there for awhile and made sure to give us a quiet room in the corner away from the elevator. Doesn't get better than that. I would highly recommend this hotel and will definitely return! Thanks, LAX Cambria for a great week!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for a week. We absolutely loved everything about it. The staff were all very nice and helpful. The room was so comfortable, spacious and up to date. The bathroom had an electric mirror that connects to Bluetooth so you can play music, very cool. Our room and entire hotel were very clean. We checked in on thanksgiving day so we were greeted with a welcome bag filled with a delicious blueberry muffin and sparkling cider. Convenient location to airport, free parking, and a shuttle to the airport. The bed and pillows were SO comfortable. Best thing to come back to after a long day of exploring. The lady that checked us in even mentioned that she saw we were going to be staying there for awhile and made sure to give us a quiet room in the corner away from the elevator. Doesn't get better than that. I would highly recommend this hotel and will definitely return! Thanks, LAX Cambria for a great week!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r542734597-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>542734597</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great new place </t>
+  </si>
+  <si>
+    <t>Great new hotel near LAX, with a great bar. Matt the bartender was so awesome and fantastic! He made the stay so fun that we didn’t leave the hotel bar to go out. The place is clean, and the customer service is fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Great new hotel near LAX, with a great bar. Matt the bartender was so awesome and fantastic! He made the stay so fun that we didn’t leave the hotel bar to go out. The place is clean, and the customer service is fantastic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r541616402-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>541616402</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The Cambria is a very nice hotel with welcome new additions such as the speaker in the mirror in the bath room and the cozy atmosphere of the bed space. I was pleasantly surprised at how modern and different this hotel was from the others dated hotels in the area. That is what made the experience memorable. I had an original reservation with the Hyatt LAX which had fallen through and the Cambria came through for us! Would absolutely stay again. Great room, great service, great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The Cambria is a very nice hotel with welcome new additions such as the speaker in the mirror in the bath room and the cozy atmosphere of the bed space. I was pleasantly surprised at how modern and different this hotel was from the others dated hotels in the area. That is what made the experience memorable. I had an original reservation with the Hyatt LAX which had fallen through and the Cambria came through for us! Would absolutely stay again. Great room, great service, great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r541280890-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>541280890</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most excellent service </t>
+  </si>
+  <si>
+    <t>This hotel is a gem and the service is excellent.  I would especially like to mention Teresa at the front desk. She is friendly, knowledgeable and her  customer service skills are outstanding.  Employees like Teresa make this hotel even more special and inviting.  Thank you Cambria and Thank you Teresa.  (Give this lady a raise)! MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is a gem and the service is excellent.  I would especially like to mention Teresa at the front desk. She is friendly, knowledgeable and her  customer service skills are outstanding.  Employees like Teresa make this hotel even more special and inviting.  Thank you Cambria and Thank you Teresa.  (Give this lady a raise)! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r539566305-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>539566305</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>I love this place</t>
+  </si>
+  <si>
+    <t>Between Mark the bartender and Keila at the front desk have made my time here absolutely enjoyable.Everytime we come Keila greets us with charm and grace.Mark the bar tender always knows what we want and provides service with a smile.I will always stay here because of these two.Thanks for your great hiring practices Cambria!!!!I love these people which makes me love this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Between Mark the bartender and Keila at the front desk have made my time here absolutely enjoyable.Everytime we come Keila greets us with charm and grace.Mark the bar tender always knows what we want and provides service with a smile.I will always stay here because of these two.Thanks for your great hiring practices Cambria!!!!I love these people which makes me love this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r539566234-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>539566234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent hotel </t>
+  </si>
+  <si>
+    <t>One of the better choice hotels I’ve had the opportunity of staying at. The rooms were spotless and upgraded beautifully. The front desk associate Keila went above and beyond to make sure me and my parties needs were taken care of. It’s also kind of out the way which is good for traffic. Will be sure to stay here whenever I’m in town MoreShow less</t>
+  </si>
+  <si>
+    <t>One of the better choice hotels I’ve had the opportunity of staying at. The rooms were spotless and upgraded beautifully. The front desk associate Keila went above and beyond to make sure me and my parties needs were taken care of. It’s also kind of out the way which is good for traffic. Will be sure to stay here whenever I’m in town More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r539524752-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>539524752</t>
+  </si>
+  <si>
+    <t>Good, clean stay....</t>
+  </si>
+  <si>
+    <t>Pros...Hotel was new and clean. Modern amenities in room. Great shower. Comfortable bed with a lot of pillows.  Large flatscreen tv on the wall in front of bed. Free parking is rare and always a plus in the LA area. Tons of available parking spaces. Felt safe. Nice seating area outside by the pool with a fire pit. Good bar. Good shuttle service.  Zero problems with check-in or check-out. Cons...Breakfast was really the only disappointment. Its not free (Just FYI purposes)and it kind of felt like breakfast was an afterthought and not really a priority.  No big deal. Just ate breakfast elsewhere.Going back to the LA area in April 2018.  If the price hadn't changed I would definitely be staying there again.  Its $212/nt now. I somehow found a deal and paid $120/nt in October. Two thumbs up overall.  Just keep the breakfast opinion in mind and the rest of the hotel should make you happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros...Hotel was new and clean. Modern amenities in room. Great shower. Comfortable bed with a lot of pillows.  Large flatscreen tv on the wall in front of bed. Free parking is rare and always a plus in the LA area. Tons of available parking spaces. Felt safe. Nice seating area outside by the pool with a fire pit. Good bar. Good shuttle service.  Zero problems with check-in or check-out. Cons...Breakfast was really the only disappointment. Its not free (Just FYI purposes)and it kind of felt like breakfast was an afterthought and not really a priority.  No big deal. Just ate breakfast elsewhere.Going back to the LA area in April 2018.  If the price hadn't changed I would definitely be staying there again.  Its $212/nt now. I somehow found a deal and paid $120/nt in October. Two thumbs up overall.  Just keep the breakfast opinion in mind and the rest of the hotel should make you happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r538605151-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>538605151</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Nice but out of the way</t>
+  </si>
+  <si>
+    <t>A reasonably new Hotel we understand about 3 miles from LAX, so if dont want the planes buzzing you a good spot.Down side is it is built in a large car park and nothing around you.  You need transport to get any where, we mastered Uber whilst here.Arrived late morning checked straight in pleasant staff in a small Hotel.Couldnt get anything to eat as restaurant is only open at night and for continental complimentary breakfast which was simple but fine. Closest fast food prob about a 20 min walk.  Didnt bother.Rooms were large, thought getting a seperate bedroom in the large suite, but all one room.  Did find hair in the shower,  Also for new place a couple items broken furniture one a table which should have been taken out as unusable, and bedside table falling over.Nice bar area, and restaurant tried once and we were sole diners, menu was fine and food good, all organised ( hope not cooked) by on duty barman.Used pool area which was nice but pool could have been better cleaned.If you dont want the ambience of the larger hotels by LAX then worth a stay.  Taxi was about $20 usd from airport (15min) , had arranged shuttle but never heard back from hotel, they do have a free airport shuttle or will use Uber next time.  About $17 for 45 min to Santa Monica.MoreShow less</t>
+  </si>
+  <si>
+    <t>A reasonably new Hotel we understand about 3 miles from LAX, so if dont want the planes buzzing you a good spot.Down side is it is built in a large car park and nothing around you.  You need transport to get any where, we mastered Uber whilst here.Arrived late morning checked straight in pleasant staff in a small Hotel.Couldnt get anything to eat as restaurant is only open at night and for continental complimentary breakfast which was simple but fine. Closest fast food prob about a 20 min walk.  Didnt bother.Rooms were large, thought getting a seperate bedroom in the large suite, but all one room.  Did find hair in the shower,  Also for new place a couple items broken furniture one a table which should have been taken out as unusable, and bedside table falling over.Nice bar area, and restaurant tried once and we were sole diners, menu was fine and food good, all organised ( hope not cooked) by on duty barman.Used pool area which was nice but pool could have been better cleaned.If you dont want the ambience of the larger hotels by LAX then worth a stay.  Taxi was about $20 usd from airport (15min) , had arranged shuttle but never heard back from hotel, they do have a free airport shuttle or will use Uber next time.  About $17 for 45 min to Santa Monica.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r538105075-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>538105075</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel with FREE parking!</t>
+  </si>
+  <si>
+    <t>WE needed a hotel that had free shuttle to LAX.  This was very modern and the rooms were lovely and beds were so comfortable.  The staff was wonderful.  Complimentary breakfast in the morning was very nice.  The showers were heavenly!  The only negative was that you could hear people in the hallway and luggage rolling down the floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>WE needed a hotel that had free shuttle to LAX.  This was very modern and the rooms were lovely and beds were so comfortable.  The staff was wonderful.  Complimentary breakfast in the morning was very nice.  The showers were heavenly!  The only negative was that you could hear people in the hallway and luggage rolling down the floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r537705938-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>537705938</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Bad start turned out great!</t>
+  </si>
+  <si>
+    <t>I book my room through travelocity (big mistack) but thanks to Susy, and her hard work and effort we got it resolved..I have stayed at many hotels but because of Susy I would only stay at this hotel when i come to LA...her and the staff was so nice and helpful and me and my son had an amazing time because of it.The hotel itself is very nice and rooms are amazing!!! if you are coming to LA for the beaches I would definitely stay at this hotel!!!!BrianMoreShow less</t>
+  </si>
+  <si>
+    <t>I book my room through travelocity (big mistack) but thanks to Susy, and her hard work and effort we got it resolved..I have stayed at many hotels but because of Susy I would only stay at this hotel when i come to LA...her and the staff was so nice and helpful and me and my son had an amazing time because of it.The hotel itself is very nice and rooms are amazing!!! if you are coming to LA for the beaches I would definitely stay at this hotel!!!!BrianMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r536502457-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>536502457</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Bartender is awesome</t>
+  </si>
+  <si>
+    <t>Stayed recently at Cambria LAX on business and had the best bartender ever. Mark Pradin was funny and entertaining and the service outstanding! Each evening we looked forward to the atmosphere and service provided. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed recently at Cambria LAX on business and had the best bartender ever. Mark Pradin was funny and entertaining and the service outstanding! Each evening we looked forward to the atmosphere and service provided. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r536410343-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>536410343</t>
+  </si>
+  <si>
+    <t>great stay!!!</t>
+  </si>
+  <si>
+    <t>hotel was very modern and clean with a nice staff. Mark the bar tender entertained us nightly. Me and my coworkers spent more time at the hotel for our entertainment then going out on the town. Mark if you get to read this you did a great job! and if I ever come back I'll look you upMoreShow less</t>
+  </si>
+  <si>
+    <t>hotel was very modern and clean with a nice staff. Mark the bar tender entertained us nightly. Me and my coworkers spent more time at the hotel for our entertainment then going out on the town. Mark if you get to read this you did a great job! and if I ever come back I'll look you upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r536400151-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>536400151</t>
+  </si>
+  <si>
+    <t>Service was great</t>
+  </si>
+  <si>
+    <t>Mark the bartender was awesome. He made my experience in El Segundo great. His service and attitude was the best. The hotel was in great shape and the rooms were very nice but that doesnt compare to the service that Mark gave us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mark the bartender was awesome. He made my experience in El Segundo great. His service and attitude was the best. The hotel was in great shape and the rooms were very nice but that doesnt compare to the service that Mark gave us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r533396821-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>533396821</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All round AMAZING hotel! </t>
+  </si>
+  <si>
+    <t>We stayed here in the first week the hotel opened and were very impressed. The location was perfect to get to the airport and all tourist spots that we wanted to visit. The reception staff were very helpful and friendly, we were always greeted with a warm smile and hello. The rooms were very well equipped with a comfortable bed, lovely bathroom, large tv and coffee machine. The pool looked lovely but we did not use it due to the weather. Parking and Wi-fi was free at the hotel which is a great selling point. We will definitely stay here again if we visit LA. MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here in the first week the hotel opened and were very impressed. The location was perfect to get to the airport and all tourist spots that we wanted to visit. The reception staff were very helpful and friendly, we were always greeted with a warm smile and hello. The rooms were very well equipped with a comfortable bed, lovely bathroom, large tv and coffee machine. The pool looked lovely but we did not use it due to the weather. Parking and Wi-fi was free at the hotel which is a great selling point. We will definitely stay here again if we visit LA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r532882442-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>532882442</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Good location, great price</t>
+  </si>
+  <si>
+    <t>Great location, close to LAX. Convenient to get to. Nice new hotel at a very reasonable price. Spacious rooms, very clean and comfortable. A basic cold breakfast is included which is plenty for us when travelling, however be sure you go down to breakfast early as food appears to only be laid out once and not refilled except for bread. The second day, when we got up later, there was no juice left, no cereal left and no yogurt left. There was only bread and English muffins.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, close to LAX. Convenient to get to. Nice new hotel at a very reasonable price. Spacious rooms, very clean and comfortable. A basic cold breakfast is included which is plenty for us when travelling, however be sure you go down to breakfast early as food appears to only be laid out once and not refilled except for bread. The second day, when we got up later, there was no juice left, no cereal left and no yogurt left. There was only bread and English muffins.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r530850023-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>530850023</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Large and well-equipped rooms</t>
+  </si>
+  <si>
+    <t>First time staying at this hotel, and would definitely come back when working around LAX. A very good business hotel with everything you need. Pool area looked nice, although my schedule didn't allow me to use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>First time staying at this hotel, and would definitely come back when working around LAX. A very good business hotel with everything you need. Pool area looked nice, although my schedule didn't allow me to use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r527134697-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>527134697</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Modern clean comfy room</t>
+  </si>
+  <si>
+    <t>Spent a night here before flying out of LAX.  Very clean, comfy and modern room.  Staff was excellent, accommodating and even texting us to see if there was anything else we needed.  Would highly recommend and would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent a night here before flying out of LAX.  Very clean, comfy and modern room.  Staff was excellent, accommodating and even texting us to see if there was anything else we needed.  Would highly recommend and would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r526882004-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>526882004</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet and new</t>
+  </si>
+  <si>
+    <t>The wifi is awesome. The rooms are new and fresh. The breakfast good. The personnel is what put the gradings down, didn't explain the breakfast times and gave us two queen beds instead of one king bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>The wifi is awesome. The rooms are new and fresh. The breakfast good. The personnel is what put the gradings down, didn't explain the breakfast times and gave us two queen beds instead of one king bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r524718654-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>524718654</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Pros:Clean propertyNear freewaysGreat workout room Free parkingHappy hourMini frigPlenty of charging ports Microwave in lobbyIron has a spotlight attachedSnack for purchase in lobbyCons:Spotty internet 1 computer and 1 printer in business centerYou can hear guest above walking around every nightPoolside rooms: guest very loudPoor bathroom lighting New designed shower that leaves water on the floorNo restaurant and nothing within walking distance Noisy mini frigSmall closet Some lights in the room don't workMoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Pros:Clean propertyNear freewaysGreat workout room Free parkingHappy hourMini frigPlenty of charging ports Microwave in lobbyIron has a spotlight attachedSnack for purchase in lobbyCons:Spotty internet 1 computer and 1 printer in business centerYou can hear guest above walking around every nightPoolside rooms: guest very loudPoor bathroom lighting New designed shower that leaves water on the floorNo restaurant and nothing within walking distance Noisy mini frigSmall closet Some lights in the room don't workMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r523111466-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>523111466</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Best LAX hotel by far!  Brand New, Breakfast, Shuttle, and much more</t>
+  </si>
+  <si>
+    <t>Hands down the best LAX hotel by far. If you are a business traveler or frequent LAX traveler there is no better place than Cambria.  The hotel is brand new and has a very warm yet modern California vibe. I am a Starwood loyalist but the Starwood/Marriott and other big chains can't compete with Cambria as all the hotels around LAX are too big and too old. As the Cambria Hotel is new, everything from the scent of the hotel to design was just as you wish for a hotel experience. The bath products and amazing breakfast exceeded my expectations. I was traveling for business but would recommend this hotel if you are looking to stay in the South Bay for a family holiday. The pool is great with California style pool cabanas. The restaurant had a great vibe and I loved sitting at the bar chatting with other travelers. Again, this hotel is by far the best. If traveling through LAX, I would highly recommend the Cambria hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hands down the best LAX hotel by far. If you are a business traveler or frequent LAX traveler there is no better place than Cambria.  The hotel is brand new and has a very warm yet modern California vibe. I am a Starwood loyalist but the Starwood/Marriott and other big chains can't compete with Cambria as all the hotels around LAX are too big and too old. As the Cambria Hotel is new, everything from the scent of the hotel to design was just as you wish for a hotel experience. The bath products and amazing breakfast exceeded my expectations. I was traveling for business but would recommend this hotel if you are looking to stay in the South Bay for a family holiday. The pool is great with California style pool cabanas. The restaurant had a great vibe and I loved sitting at the bar chatting with other travelers. Again, this hotel is by far the best. If traveling through LAX, I would highly recommend the Cambria hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r523003695-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>523003695</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Very modern, had a great stay!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed in this hotel after a long flight from the Netherlands. The hotel is very conveniently located, close to the airport which was great for us. Enough parking space available.The hotel itself is very modern and stylish. Rooms are new, great king beds and a nice shower! Everything was perfect!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed in this hotel after a long flight from the Netherlands. The hotel is very conveniently located, close to the airport which was great for us. Enough parking space available.The hotel itself is very modern and stylish. Rooms are new, great king beds and a nice shower! Everything was perfect!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r522049170-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>522049170</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>New property and was very impressed with the room, customer service, amenities, shuttle service, etc.  Timely to pick us up and even though they stopped at other properties with guests, the ride was not that long.  Very quick on the check in &amp; out, quiet location with plenty of parking for those that are driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>New property and was very impressed with the room, customer service, amenities, shuttle service, etc.  Timely to pick us up and even though they stopped at other properties with guests, the ride was not that long.  Very quick on the check in &amp; out, quiet location with plenty of parking for those that are driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r519048782-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>519048782</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Pleasant overnight stay</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel with nice feel and decor. Beds were super comfortable. I liked the Bluetooth and speaker system integrated into the mirror inside the bathroom, can play songs while taking shower.. nice and fancy feature.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel with nice feel and decor. Beds were super comfortable. I liked the Bluetooth and speaker system integrated into the mirror inside the bathroom, can play songs while taking shower.. nice and fancy feature.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r517729251-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>517729251</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Loved the property but thank God I checked my bank account</t>
+  </si>
+  <si>
+    <t>When I first pulled into the parking lot I was feeling good about this place. Clean grounds, friendly front desk staff, speedy check in process.... and the room....AWESOME!!! It was spacious, I loved the little trendy touches here and there and the Bluetooth mirror in the bathroom. I stayed at the property for 2 days. After returning from being out all day the first night, my bed was turned down and fresh towels were left. I didn't even sweat the note from the attendant stating she wasn't able to change my sheets because they're weren't any clean ones at the time. It was just me so... no biggie. When I checked out the next day, I stopped by the front desk to inquire about the turn around time for the deposit to be refunded and obtained a copy of my invoice. All charges indicated were correct. To my surprise though, when I checked my account online a day and a half later, there was a charge from them for $250. I immediately called and was told "housekeeping charged you a smoking fee". I was EXTREMELY upset because #1, I DO NOT SMOKE!!!  I was told I needed to contact the GM to dispute the charge. The very next morning I sent an email to the GM and Asst GM. The GM was apparently out of town for a week so I called and followed up with the asst. He advised...When I first pulled into the parking lot I was feeling good about this place. Clean grounds, friendly front desk staff, speedy check in process.... and the room....AWESOME!!! It was spacious, I loved the little trendy touches here and there and the Bluetooth mirror in the bathroom. I stayed at the property for 2 days. After returning from being out all day the first night, my bed was turned down and fresh towels were left. I didn't even sweat the note from the attendant stating she wasn't able to change my sheets because they're weren't any clean ones at the time. It was just me so... no biggie. When I checked out the next day, I stopped by the front desk to inquire about the turn around time for the deposit to be refunded and obtained a copy of my invoice. All charges indicated were correct. To my surprise though, when I checked my account online a day and a half later, there was a charge from them for $250. I immediately called and was told "housekeeping charged you a smoking fee". I was EXTREMELY upset because #1, I DO NOT SMOKE!!!  I was told I needed to contact the GM to dispute the charge. The very next morning I sent an email to the GM and Asst GM. The GM was apparently out of town for a week so I called and followed up with the asst. He advised me that he would look at the "pictures" and get back to me. I asked that those said "pictures" be forwarded to me as well because for someone who doesn't smoke to be charged for smoking in a room, I needed to see what this was all about. I called back again after not hearing back from the asst GM prior to the end of the day. He simply said, "Oh I sent you an email. We're good. I'm refunding your money. The executive housekeeper that added this charge is no longer with the company and none of the housekeepers that worked that morning know what this is about". Strange as all get out!!!! Smh. Keep in mind, I never obtained those "pictures". I will say that I was very impressed with the property and was looking forward to staying there again. I travel to the L.A. area often and since my mom passed away early this year, I now have to stay at a hotel. I'm appreciate the fact that mgmt handled the situation in a timely manner and I'm so glad I double checked my bank acct. I really wished I could give them more stars, because the hotel itself deserved it but that $250 charge left a very bad taste in my mouth.  MoreShow less</t>
+  </si>
+  <si>
+    <t>When I first pulled into the parking lot I was feeling good about this place. Clean grounds, friendly front desk staff, speedy check in process.... and the room....AWESOME!!! It was spacious, I loved the little trendy touches here and there and the Bluetooth mirror in the bathroom. I stayed at the property for 2 days. After returning from being out all day the first night, my bed was turned down and fresh towels were left. I didn't even sweat the note from the attendant stating she wasn't able to change my sheets because they're weren't any clean ones at the time. It was just me so... no biggie. When I checked out the next day, I stopped by the front desk to inquire about the turn around time for the deposit to be refunded and obtained a copy of my invoice. All charges indicated were correct. To my surprise though, when I checked my account online a day and a half later, there was a charge from them for $250. I immediately called and was told "housekeeping charged you a smoking fee". I was EXTREMELY upset because #1, I DO NOT SMOKE!!!  I was told I needed to contact the GM to dispute the charge. The very next morning I sent an email to the GM and Asst GM. The GM was apparently out of town for a week so I called and followed up with the asst. He advised...When I first pulled into the parking lot I was feeling good about this place. Clean grounds, friendly front desk staff, speedy check in process.... and the room....AWESOME!!! It was spacious, I loved the little trendy touches here and there and the Bluetooth mirror in the bathroom. I stayed at the property for 2 days. After returning from being out all day the first night, my bed was turned down and fresh towels were left. I didn't even sweat the note from the attendant stating she wasn't able to change my sheets because they're weren't any clean ones at the time. It was just me so... no biggie. When I checked out the next day, I stopped by the front desk to inquire about the turn around time for the deposit to be refunded and obtained a copy of my invoice. All charges indicated were correct. To my surprise though, when I checked my account online a day and a half later, there was a charge from them for $250. I immediately called and was told "housekeeping charged you a smoking fee". I was EXTREMELY upset because #1, I DO NOT SMOKE!!!  I was told I needed to contact the GM to dispute the charge. The very next morning I sent an email to the GM and Asst GM. The GM was apparently out of town for a week so I called and followed up with the asst. He advised me that he would look at the "pictures" and get back to me. I asked that those said "pictures" be forwarded to me as well because for someone who doesn't smoke to be charged for smoking in a room, I needed to see what this was all about. I called back again after not hearing back from the asst GM prior to the end of the day. He simply said, "Oh I sent you an email. We're good. I'm refunding your money. The executive housekeeper that added this charge is no longer with the company and none of the housekeepers that worked that morning know what this is about". Strange as all get out!!!! Smh. Keep in mind, I never obtained those "pictures". I will say that I was very impressed with the property and was looking forward to staying there again. I travel to the L.A. area often and since my mom passed away early this year, I now have to stay at a hotel. I'm appreciate the fact that mgmt handled the situation in a timely manner and I'm so glad I double checked my bank acct. I really wished I could give them more stars, because the hotel itself deserved it but that $250 charge left a very bad taste in my mouth.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r517110932-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>517110932</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>What a lovely hotel so near the airport</t>
+  </si>
+  <si>
+    <t>We had a wonderful one night stop-over stay.  Normally stay at 5 star hotels but as we needed to be near the airport after a long flight picked this hotel. We were very pleased we did.  The hotel is new and modern with a great relaxing vibe.  The staff were lovely and helpful.  For what we paid the room was a great size.It is a wonderfully thought out property.  The mirror in the bathroom was amazing.  You could link your phone to it and it played music!  Even impressive for my teenage son:)Overall the value of money was impressive. Well done to the Cambria brand I will definitely be staying again and would recommend this hotel without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a wonderful one night stop-over stay.  Normally stay at 5 star hotels but as we needed to be near the airport after a long flight picked this hotel. We were very pleased we did.  The hotel is new and modern with a great relaxing vibe.  The staff were lovely and helpful.  For what we paid the room was a great size.It is a wonderfully thought out property.  The mirror in the bathroom was amazing.  You could link your phone to it and it played music!  Even impressive for my teenage son:)Overall the value of money was impressive. Well done to the Cambria brand I will definitely be staying again and would recommend this hotel without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r512291141-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>512291141</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Extremely Helpful staff and great property</t>
+  </si>
+  <si>
+    <t>The hotel has been open only a few months.  The beds are very comfortable and there is state-of-the-art television and internet.  A member of the front desk staff, Eddie, was particularly helpful not once but twice!  He resolved an incorrect room  assignment and assisted us with a future reservation, all with a very pleasant and efficient demeanor.  He is the perfect first-contact for arriving guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>The hotel has been open only a few months.  The beds are very comfortable and there is state-of-the-art television and internet.  A member of the front desk staff, Eddie, was particularly helpful not once but twice!  He resolved an incorrect room  assignment and assisted us with a future reservation, all with a very pleasant and efficient demeanor.  He is the perfect first-contact for arriving guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r511280269-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>511280269</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Business trip to El Segundo, great hotel</t>
+  </si>
+  <si>
+    <t>New modern clean rooms, friendly staff, new exercise room, music lights, TV. Will stay again.  Large TV, even chromecast builtin, streamed a movie from my phone. Fast free internet. Location is great, near many corporations in El SegundoMoreShow less</t>
+  </si>
+  <si>
+    <t>New modern clean rooms, friendly staff, new exercise room, music lights, TV. Will stay again.  Large TV, even chromecast builtin, streamed a movie from my phone. Fast free internet. Location is great, near many corporations in El SegundoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r510651765-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>510651765</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>A+ stay at modern hotel with no pets (HOORAY,) heated pool, and great housekeeping.</t>
+  </si>
+  <si>
+    <t>Stayed in Room 528 for a 4-day mini vacation.  Our housekeeper Vanessa was great.  She kept the room neat and tidy, even adding a personal touch by sitting my child's teddy bear on the pillows every day.  The front desk staff were very attentive and friendly, as well.  Also, the no pet policy was a breath of fresh air.  The hotel lobby, rooms, and bar area are all very sleek with a minimalist decor.  The heated pool was a big plus too.  And lastly, they have FREE &amp; AMPLE PARKING!!  I'd definitely book this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in Room 528 for a 4-day mini vacation.  Our housekeeper Vanessa was great.  She kept the room neat and tidy, even adding a personal touch by sitting my child's teddy bear on the pillows every day.  The front desk staff were very attentive and friendly, as well.  Also, the no pet policy was a breath of fresh air.  The hotel lobby, rooms, and bar area are all very sleek with a minimalist decor.  The heated pool was a big plus too.  And lastly, they have FREE &amp; AMPLE PARKING!!  I'd definitely book this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r508871281-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>508871281</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Modern hotel close to LAX</t>
+  </si>
+  <si>
+    <t>I was very pleased with my one night stay at this Cambria Hotel. The hotel appears to be very new and has a very modern feel to it. The location wasn't great as it is a bit out of the way and it is set back from the street behind buildings and a parking lot. There is an airport shuttle and the Green Line rail station is within walking distance, but if you are here for more than a day, having a car would make the experience much better. 
+Check in was quick and the staff member was very friendly. The lobby and public areas were very nice and the elevators were very efficient. There was a small display of snacks and beverages that appeared to be available for purchase. 
+My room was nicely decorated and very comfortable. In addition to the bed, there was a nice lounge chair and small table by the window and bedside tables with lamps. 
+The bathroom was very nice with a walk in shower (no tub) and very nice toiletries. The mirror had some sort of blue tooth system built in. My one negative was that lighting in the bathroom was not great for shaving. 
+I work on the road and there was a spacious desk with a comfortable chair and a work light. Internet service was very good. Some really understands what makes for a great hotel room. 
+The room was equipped with...I was very pleased with my one night stay at this Cambria Hotel. The hotel appears to be very new and has a very modern feel to it. The location wasn't great as it is a bit out of the way and it is set back from the street behind buildings and a parking lot. There is an airport shuttle and the Green Line rail station is within walking distance, but if you are here for more than a day, having a car would make the experience much better. Check in was quick and the staff member was very friendly. The lobby and public areas were very nice and the elevators were very efficient. There was a small display of snacks and beverages that appeared to be available for purchase. My room was nicely decorated and very comfortable. In addition to the bed, there was a nice lounge chair and small table by the window and bedside tables with lamps. The bathroom was very nice with a walk in shower (no tub) and very nice toiletries. The mirror had some sort of blue tooth system built in. My one negative was that lighting in the bathroom was not great for shaving. I work on the road and there was a spacious desk with a comfortable chair and a work light. Internet service was very good. Some really understands what makes for a great hotel room. The room was equipped with a small refrigerator and a very nice coffee maker with better than average coffee packs. Breakfast was available in the hotel but was not included in the room rate. I would recommend this Cambria hotel with no reservations.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very pleased with my one night stay at this Cambria Hotel. The hotel appears to be very new and has a very modern feel to it. The location wasn't great as it is a bit out of the way and it is set back from the street behind buildings and a parking lot. There is an airport shuttle and the Green Line rail station is within walking distance, but if you are here for more than a day, having a car would make the experience much better. 
+Check in was quick and the staff member was very friendly. The lobby and public areas were very nice and the elevators were very efficient. There was a small display of snacks and beverages that appeared to be available for purchase. 
+My room was nicely decorated and very comfortable. In addition to the bed, there was a nice lounge chair and small table by the window and bedside tables with lamps. 
+The bathroom was very nice with a walk in shower (no tub) and very nice toiletries. The mirror had some sort of blue tooth system built in. My one negative was that lighting in the bathroom was not great for shaving. 
+I work on the road and there was a spacious desk with a comfortable chair and a work light. Internet service was very good. Some really understands what makes for a great hotel room. 
+The room was equipped with...I was very pleased with my one night stay at this Cambria Hotel. The hotel appears to be very new and has a very modern feel to it. The location wasn't great as it is a bit out of the way and it is set back from the street behind buildings and a parking lot. There is an airport shuttle and the Green Line rail station is within walking distance, but if you are here for more than a day, having a car would make the experience much better. Check in was quick and the staff member was very friendly. The lobby and public areas were very nice and the elevators were very efficient. There was a small display of snacks and beverages that appeared to be available for purchase. My room was nicely decorated and very comfortable. In addition to the bed, there was a nice lounge chair and small table by the window and bedside tables with lamps. The bathroom was very nice with a walk in shower (no tub) and very nice toiletries. The mirror had some sort of blue tooth system built in. My one negative was that lighting in the bathroom was not great for shaving. I work on the road and there was a spacious desk with a comfortable chair and a work light. Internet service was very good. Some really understands what makes for a great hotel room. The room was equipped with a small refrigerator and a very nice coffee maker with better than average coffee packs. Breakfast was available in the hotel but was not included in the room rate. I would recommend this Cambria hotel with no reservations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r508424947-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>508424947</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Very modern</t>
+  </si>
+  <si>
+    <t>Felt like it just opened for business yesterday.  Everything looked brand new and was ultra clean.  Even the bathroom mirror was Bluetooth audio with volume controls built into the glass. I guess you can't get more modern than that. MoreShow less</t>
+  </si>
+  <si>
+    <t>Felt like it just opened for business yesterday.  Everything looked brand new and was ultra clean.  Even the bathroom mirror was Bluetooth audio with volume controls built into the glass. I guess you can't get more modern than that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r508408727-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>508408727</t>
+  </si>
+  <si>
+    <t>I would give it 6 stars</t>
+  </si>
+  <si>
+    <t>We can to California on vacation to visit Hollywood and Universal Studios. This hotel was only 25 miles away. I'm so glad the other closer more expensive hotels were booked up. Everyone made us feel extremely welcome. We ended up staying 5 days here. I couldn't believe how inexpensive this hotel was with choice points. If we ever come back this way I will stay here again. We liked it so much we had reservations elsewhere that were not able to be canceled. We opted to stay here and eat the other hotel bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>We can to California on vacation to visit Hollywood and Universal Studios. This hotel was only 25 miles away. I'm so glad the other closer more expensive hotels were booked up. Everyone made us feel extremely welcome. We ended up staying 5 days here. I couldn't believe how inexpensive this hotel was with choice points. If we ever come back this way I will stay here again. We liked it so much we had reservations elsewhere that were not able to be canceled. We opted to stay here and eat the other hotel bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r506007968-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>506007968</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Sad Management</t>
+  </si>
+  <si>
+    <t>My first visit was impressive, friendly staff and fresh clean rooms. Two months later and it already getting bad. Tomorrow is their grand opening and I watched as either the district or regional manager sat in the bar drunk and made advances on one of the guests. When her husband showed up and she went to call the babysitter....he made ugly remarks about her. This man should be fired. Everyone was preparing for their grand opening but this drunk disgusting married old pervert! He was so unprofessional while telling everyone how important he believes he is.My room had some kind of a water leak and the carpet was soaked the entire 4 days I was there. Simple daily tasks are being missed and should be corrected by management. If they didn't spend their time getting drunk in the bar instead of guiding this hotel staff to excellence, I would be impressed. Too bad they don't lead instead of being an embarrassment to the staff.I had another manager tell me how awful his day was....who cares. I expect excellent service, clean rooms, good food at the end of my day not their complaints about working for their company.I want to stress these were not the daily managers but ones that arrived to help with the grand opening. Perhaps they should have stayed home?MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>My first visit was impressive, friendly staff and fresh clean rooms. Two months later and it already getting bad. Tomorrow is their grand opening and I watched as either the district or regional manager sat in the bar drunk and made advances on one of the guests. When her husband showed up and she went to call the babysitter....he made ugly remarks about her. This man should be fired. Everyone was preparing for their grand opening but this drunk disgusting married old pervert! He was so unprofessional while telling everyone how important he believes he is.My room had some kind of a water leak and the carpet was soaked the entire 4 days I was there. Simple daily tasks are being missed and should be corrected by management. If they didn't spend their time getting drunk in the bar instead of guiding this hotel staff to excellence, I would be impressed. Too bad they don't lead instead of being an embarrassment to the staff.I had another manager tell me how awful his day was....who cares. I expect excellent service, clean rooms, good food at the end of my day not their complaints about working for their company.I want to stress these were not the daily managers but ones that arrived to help with the grand opening. Perhaps they should have stayed home?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r505954452-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>505954452</t>
+  </si>
+  <si>
+    <t>Check the sheets before getting into bed!</t>
+  </si>
+  <si>
+    <t>This would have been a 4 star review if it weren't for housekeeping. We saw housekeeping down the hall from our room on our 2nd day and just assumed they would clean the room while we were out for 6 hours. They never did. My husband asked for some towels and body lotion so we could get ready for dinner assuming the room would he cleaned while we were out. It never was. By day 3, we came back after lunch and had to ask that our room be cleaned. The housekeeper that cleaned our room had the audacity to take the lotions I was given the day before from our bathroom and left a half empty bottle. I didn't know housekeeping had the authority to remove items from a guest room. What if I brought these from another hotel? What if I had purchased them? They are Bath &amp; Body Works minis which can be purchased in Bath &amp; Body Works stores everywhere.
+We were supposed to check out on day 4 but had to extend our stay for another night for work. The room was cleaned while we were out and when we returned, our keys were not working. We went to the front desk and they said they thought we checked out. We had to show our reservation confirmation email as no one seemed to have a clue what was going on. They provided a working key...This would have been a 4 star review if it weren't for housekeeping. We saw housekeeping down the hall from our room on our 2nd day and just assumed they would clean the room while we were out for 6 hours. They never did. My husband asked for some towels and body lotion so we could get ready for dinner assuming the room would he cleaned while we were out. It never was. By day 3, we came back after lunch and had to ask that our room be cleaned. The housekeeper that cleaned our room had the audacity to take the lotions I was given the day before from our bathroom and left a half empty bottle. I didn't know housekeeping had the authority to remove items from a guest room. What if I brought these from another hotel? What if I had purchased them? They are Bath &amp; Body Works minis which can be purchased in Bath &amp; Body Works stores everywhere.We were supposed to check out on day 4 but had to extend our stay for another night for work. The room was cleaned while we were out and when we returned, our keys were not working. We went to the front desk and they said they thought we checked out. We had to show our reservation confirmation email as no one seemed to have a clue what was going on. They provided a working key and we went back to our room. Mind you all of our luggage was still in the room. Upon getting into bed, we saw a chocolate stain on the sheets where my husband accidentally dropped a cookie while snacking in bed the night before. When he asked housekeeping about it, they said no one is staying in that room. So they thought we checked out, made the bed and didn't bother to change the sheets for the next guest. Disgusting. The pool was never cleaned during our entire stay. It was filled with leaves and bugs. The bottom looked like it was never vacuumed. I'm not sure who's job this is but they're clearly not doing what they're paid to. In 5 days, I never once saw anyone even skim the pool.It's a shame that housekeeping can ruin a nice, reasonably priced hotel but I will not stay here ever again. There are way too many hotels in the area at the same price point that may not be as new but they are clean. I contacted Choice Hotels regarding this unfortunate situation and my email went ignored so I guess they just don't care.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>This would have been a 4 star review if it weren't for housekeeping. We saw housekeeping down the hall from our room on our 2nd day and just assumed they would clean the room while we were out for 6 hours. They never did. My husband asked for some towels and body lotion so we could get ready for dinner assuming the room would he cleaned while we were out. It never was. By day 3, we came back after lunch and had to ask that our room be cleaned. The housekeeper that cleaned our room had the audacity to take the lotions I was given the day before from our bathroom and left a half empty bottle. I didn't know housekeeping had the authority to remove items from a guest room. What if I brought these from another hotel? What if I had purchased them? They are Bath &amp; Body Works minis which can be purchased in Bath &amp; Body Works stores everywhere.
+We were supposed to check out on day 4 but had to extend our stay for another night for work. The room was cleaned while we were out and when we returned, our keys were not working. We went to the front desk and they said they thought we checked out. We had to show our reservation confirmation email as no one seemed to have a clue what was going on. They provided a working key...This would have been a 4 star review if it weren't for housekeeping. We saw housekeeping down the hall from our room on our 2nd day and just assumed they would clean the room while we were out for 6 hours. They never did. My husband asked for some towels and body lotion so we could get ready for dinner assuming the room would he cleaned while we were out. It never was. By day 3, we came back after lunch and had to ask that our room be cleaned. The housekeeper that cleaned our room had the audacity to take the lotions I was given the day before from our bathroom and left a half empty bottle. I didn't know housekeeping had the authority to remove items from a guest room. What if I brought these from another hotel? What if I had purchased them? They are Bath &amp; Body Works minis which can be purchased in Bath &amp; Body Works stores everywhere.We were supposed to check out on day 4 but had to extend our stay for another night for work. The room was cleaned while we were out and when we returned, our keys were not working. We went to the front desk and they said they thought we checked out. We had to show our reservation confirmation email as no one seemed to have a clue what was going on. They provided a working key and we went back to our room. Mind you all of our luggage was still in the room. Upon getting into bed, we saw a chocolate stain on the sheets where my husband accidentally dropped a cookie while snacking in bed the night before. When he asked housekeeping about it, they said no one is staying in that room. So they thought we checked out, made the bed and didn't bother to change the sheets for the next guest. Disgusting. The pool was never cleaned during our entire stay. It was filled with leaves and bugs. The bottom looked like it was never vacuumed. I'm not sure who's job this is but they're clearly not doing what they're paid to. In 5 days, I never once saw anyone even skim the pool.It's a shame that housekeeping can ruin a nice, reasonably priced hotel but I will not stay here ever again. There are way too many hotels in the area at the same price point that may not be as new but they are clean. I contacted Choice Hotels regarding this unfortunate situation and my email went ignored so I guess they just don't care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r505681911-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>505681911</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Very nice Hotel</t>
+  </si>
+  <si>
+    <t>Great place to stay for a lay over or two. Big rooms, very clean, great bar and food. Staff very friendly and helpful. They have a shuttle to the airport. Liked staying, would stay again. The place is very new.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay for a lay over or two. Big rooms, very clean, great bar and food. Staff very friendly and helpful. They have a shuttle to the airport. Liked staying, would stay again. The place is very new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r501975789-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>501975789</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Keke.m</t>
+  </si>
+  <si>
+    <t>I was very pleased and satisfied with my stay at the Cambria everything there was amazing and very clean on top of great customer service. Keila that works front desk was outstanding doing our stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>I was very pleased and satisfied with my stay at the Cambria everything there was amazing and very clean on top of great customer service. Keila that works front desk was outstanding doing our stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r501784181-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>501784181</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Well appointed modern hotel</t>
+  </si>
+  <si>
+    <t>We were in awe when we walked into this hotel. We have never stayed at a Cambria Inn &amp; Suites so weren't quite sure what to expect but it exceeded our expectations. It's not quite a Hilton/Marriot but definitely not that far behind. They had a bar which made awesome martinis, a pool with cabanas, a gym with every possible thing you could imagine to get a great workout in and breakfast to order. The room was sleek, modern, clean and high tech. The mirror in our bathroom was blue tooth compatible!!! Can you imagine that?! Absolutely loved hooking my phone up and having surround sound while I showered. And to make things better they had what seemed like a 50" tv. All in all it was a pleasant surprise. If we are ever in the area or need to fly out of LAX this will definitely be our go to place. Great job Cambria Inn &amp; Suites!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>We were in awe when we walked into this hotel. We have never stayed at a Cambria Inn &amp; Suites so weren't quite sure what to expect but it exceeded our expectations. It's not quite a Hilton/Marriot but definitely not that far behind. They had a bar which made awesome martinis, a pool with cabanas, a gym with every possible thing you could imagine to get a great workout in and breakfast to order. The room was sleek, modern, clean and high tech. The mirror in our bathroom was blue tooth compatible!!! Can you imagine that?! Absolutely loved hooking my phone up and having surround sound while I showered. And to make things better they had what seemed like a 50" tv. All in all it was a pleasant surprise. If we are ever in the area or need to fly out of LAX this will definitely be our go to place. Great job Cambria Inn &amp; Suites!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r500319541-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>500319541</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>New and sheik</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of its vicinity to LAX for one night before my family and I left for Mexico.  It is brand new and modern.  I can't say enough about how well appointed it is.  The pool area was very welcoming with a seating area and fire pit.  The gym was one of the most well furnished gyms that I have ever encountered at a mid level hotel,  There was also a very large seating area in the lobby with bar tops. We arrived at 3:00 (check in time) and our room wasn't ready.   The front desk attendant offered us free breakfast for the following morning as compensation.  I declined as we had to leave before breakfast was to be served.  As a consolation to that, she offered for my wife and I to have our first happy hour drink on the house.  I accepted.  The bar area is full service with food offerings.  Cambria will now be my first choice when I need to fly out of LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of its vicinity to LAX for one night before my family and I left for Mexico.  It is brand new and modern.  I can't say enough about how well appointed it is.  The pool area was very welcoming with a seating area and fire pit.  The gym was one of the most well furnished gyms that I have ever encountered at a mid level hotel,  There was also a very large seating area in the lobby with bar tops. We arrived at 3:00 (check in time) and our room wasn't ready.   The front desk attendant offered us free breakfast for the following morning as compensation.  I declined as we had to leave before breakfast was to be served.  As a consolation to that, she offered for my wife and I to have our first happy hour drink on the house.  I accepted.  The bar area is full service with food offerings.  Cambria will now be my first choice when I need to fly out of LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r496917298-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>496917298</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel/ cheap mattress </t>
+  </si>
+  <si>
+    <t>This hotel is new. The staff was friendly. The rooms are modern with nice decore and very large tv's.  The pool and outside patio area was nice. The only negative was the uncomfortably bed and our room was not refreshed on the third day of our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is new. The staff was friendly. The rooms are modern with nice decore and very large tv's.  The pool and outside patio area was nice. The only negative was the uncomfortably bed and our room was not refreshed on the third day of our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r495256952-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>495256952</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>New and nice!</t>
+  </si>
+  <si>
+    <t>We chose this hotel for it's location, near the beach and the airport. It does not offer a free breakfast, as other Choice hotel brands do. This is a business type hotel. The wifi worked well. We checked out the pool area, and it looked very nice. Didn't use it, not enough time. It was clean and roomy, as there were 3 of us. We didn't eat at the restaurant, either. Beds were comfy and the towels were great.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>We chose this hotel for it's location, near the beach and the airport. It does not offer a free breakfast, as other Choice hotel brands do. This is a business type hotel. The wifi worked well. We checked out the pool area, and it looked very nice. Didn't use it, not enough time. It was clean and roomy, as there were 3 of us. We didn't eat at the restaurant, either. Beds were comfy and the towels were great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r493646789-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>493646789</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Harder to find, but great property</t>
+  </si>
+  <si>
+    <t>I had to pick up my family early the next morning from LAX, so I booked this hotel without ever having stayed with this brand before.  This is a great property, and I would have been very content staying here several days instead of the short visit I had.The suite was a true suite, with a door to the bedroom (not a shortened wall), and this well laid out room was more than sufficient for me. Plenty of space for watching TV or working at a desk, nice bathroom.Only negatives: The biggest problem I had was finding this place even with the GPS.  I drove past the driveway twice because I was expecting a normal sized hotel sign, but this property is a little bit back in what appears to be a corporate parking lot (several buildings around).  There is plenty of parking, although it isn't clear where to park.That is a pretty small thing, but I am happy to have stayed there, and I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>I had to pick up my family early the next morning from LAX, so I booked this hotel without ever having stayed with this brand before.  This is a great property, and I would have been very content staying here several days instead of the short visit I had.The suite was a true suite, with a door to the bedroom (not a shortened wall), and this well laid out room was more than sufficient for me. Plenty of space for watching TV or working at a desk, nice bathroom.Only negatives: The biggest problem I had was finding this place even with the GPS.  I drove past the driveway twice because I was expecting a normal sized hotel sign, but this property is a little bit back in what appears to be a corporate parking lot (several buildings around).  There is plenty of parking, although it isn't clear where to park.That is a pretty small thing, but I am happy to have stayed there, and I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r490905784-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>490905784</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Lovely new hotel, great location!!!</t>
+  </si>
+  <si>
+    <t>We booked this hotel before it was open. We booked because of the price. But what a great surprise! Great location near LAX airport, ample of free parking. A supermarket a 3 min drive away. Plenty of restaurants near by.Friendly and very helpful staff. Rooms are more of a 4-5 star standard and very spacious. I travel alot and this hotel room had everything and more. Lovely modern design and very comfortable big beds.There is a fair sized, well equipped gym. The outside area with the pool is small but nicely set out. We didnt have breakfast here as we thought it was overpriced for what they were offering.All in all a lovely hotel, with the most helpful and friendly staff. We will definately stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We booked this hotel before it was open. We booked because of the price. But what a great surprise! Great location near LAX airport, ample of free parking. A supermarket a 3 min drive away. Plenty of restaurants near by.Friendly and very helpful staff. Rooms are more of a 4-5 star standard and very spacious. I travel alot and this hotel room had everything and more. Lovely modern design and very comfortable big beds.There is a fair sized, well equipped gym. The outside area with the pool is small but nicely set out. We didnt have breakfast here as we thought it was overpriced for what they were offering.All in all a lovely hotel, with the most helpful and friendly staff. We will definately stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r490497346-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>490497346</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>This is the cutest hotel near the lax airport. Breakfast buffet in the am. Victoria serving at the bar for happy hour is the sweetest! She will take care of u! Very quick uber to downtown el Segundo. Cute cute atmosphere- every employee goes above and beyond to make your stay great!MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>This is the cutest hotel near the lax airport. Breakfast buffet in the am. Victoria serving at the bar for happy hour is the sweetest! She will take care of u! Very quick uber to downtown el Segundo. Cute cute atmosphere- every employee goes above and beyond to make your stay great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r490118331-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>490118331</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This property opened at the beginning of May and I had the impression they're still working out some of the details that hopefully will make this a fine hotel. Staff are very friendly and helpful. The location gives the appearance of being a bit isolated but that's not the case. Light rail service is a little over a block away and will take you to the downtown area. Moderately priced and fine dining options are close by - just ask the front desk for assistance. The beach is a bit of a walk but transportation options are easy to access. Hotel rooms are nicely sized and very comfortable. I especially liked the bathroom - good counter space, brightly lighted and a large shower stall (interestingly no shower door). If you enjoy reading in bed you'll like the light provided by the bedside lamp. Although I didn't take advantage of this feature there was a large outside patio near the pool that offered what appeared to be comfortable seating and pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property opened at the beginning of May and I had the impression they're still working out some of the details that hopefully will make this a fine hotel. Staff are very friendly and helpful. The location gives the appearance of being a bit isolated but that's not the case. Light rail service is a little over a block away and will take you to the downtown area. Moderately priced and fine dining options are close by - just ask the front desk for assistance. The beach is a bit of a walk but transportation options are easy to access. Hotel rooms are nicely sized and very comfortable. I especially liked the bathroom - good counter space, brightly lighted and a large shower stall (interestingly no shower door). If you enjoy reading in bed you'll like the light provided by the bedside lamp. Although I didn't take advantage of this feature there was a large outside patio near the pool that offered what appeared to be comfortable seating and pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r488536583-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>488536583</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New hotel at good price </t>
+  </si>
+  <si>
+    <t>Pros: good location..if driving. Close to LAX airport and about 20 mins drive to Santa Monica. Also about 50 mins to LA downtown and Hollywood walk of fame. Easy access to interstate. Hotel is fairly new, which is why it's competitively priced for now. Rooms and nice and modern with a big screen TV (Netflix and youtube apps installed). Coffee maker is also in the room. Bathrooms are clean and modern as well. The mirror has Bluetooth speakers. The breakfast is extra but a good spread of buffet and very reasonable. Parking is free as well. Cons: since its a very new property, the staff is also new and looks like...still learning professional skills. The walls are thin, can hear the people outside in the corridor.Over all a good hotel at a great price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros: good location..if driving. Close to LAX airport and about 20 mins drive to Santa Monica. Also about 50 mins to LA downtown and Hollywood walk of fame. Easy access to interstate. Hotel is fairly new, which is why it's competitively priced for now. Rooms and nice and modern with a big screen TV (Netflix and youtube apps installed). Coffee maker is also in the room. Bathrooms are clean and modern as well. The mirror has Bluetooth speakers. The breakfast is extra but a good spread of buffet and very reasonable. Parking is free as well. Cons: since its a very new property, the staff is also new and looks like...still learning professional skills. The walls are thin, can hear the people outside in the corridor.Over all a good hotel at a great price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r487891098-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>487891098</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>New Choice Hotel Concept &amp; only one word can describe it, AMAZING!!!!!</t>
+  </si>
+  <si>
+    <t>I travel for a living, last year I spent 47 weeks on the road. While working near Los Angeles I discovered this GEM of a hotel. Choice hotels has really stepped up their game. Bluetooth speakers in the mirror, full service bar, LED mood lighting in the headboard there's nothing they haven't thought of!!! The bartender Mark is Awesome. Carlos the night manager answered my questions about the hotel at 3:15 am. The pool area can be compared to a 5 star resort, and the fitness center makes some gyms look like a joke. This hotel is worth every penny, and honestly I'd  tell Hilton to shove it, if Cambria hotels were more readily available. You wont be disappointed staying here!!!!! AMAZING HOTEL, &amp; FIRST CLASS STAFF!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel for a living, last year I spent 47 weeks on the road. While working near Los Angeles I discovered this GEM of a hotel. Choice hotels has really stepped up their game. Bluetooth speakers in the mirror, full service bar, LED mood lighting in the headboard there's nothing they haven't thought of!!! The bartender Mark is Awesome. Carlos the night manager answered my questions about the hotel at 3:15 am. The pool area can be compared to a 5 star resort, and the fitness center makes some gyms look like a joke. This hotel is worth every penny, and honestly I'd  tell Hilton to shove it, if Cambria hotels were more readily available. You wont be disappointed staying here!!!!! AMAZING HOTEL, &amp; FIRST CLASS STAFF!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r487586999-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>487586999</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details </t>
+  </si>
+  <si>
+    <t>I stayed at the Cambria on the 5th for 1 night. The next morning I went to take a shower and the water was COLD. No hot water whatsoever. I called the front desk and they said the hot water had been down since the night prior and they had no idea how long it would take, but that they were working on it. I absolutely had to take a shower and for a hotel I'm paying nearly $200 to stay in I would assume hot water is included. The lady offered me free breakfast in lieu of hot water. What kind of offer is that?? If I have to go somewhere else to take a shower that would definitely take up more time than I had planned for so breakfast was out of the question and quite frankly that offer was a slap in the face. I would have appreciated if they had let me known the night prior when it went down so at least I could have prepared properly or decided to leave the hotel at that point. I would love to support this hotel , but hate to feel they were just pulling a bait and switch on a paying customer. MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, Manager at Cambria Hotel LAX, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Cambria on the 5th for 1 night. The next morning I went to take a shower and the water was COLD. No hot water whatsoever. I called the front desk and they said the hot water had been down since the night prior and they had no idea how long it would take, but that they were working on it. I absolutely had to take a shower and for a hotel I'm paying nearly $200 to stay in I would assume hot water is included. The lady offered me free breakfast in lieu of hot water. What kind of offer is that?? If I have to go somewhere else to take a shower that would definitely take up more time than I had planned for so breakfast was out of the question and quite frankly that offer was a slap in the face. I would have appreciated if they had let me known the night prior when it went down so at least I could have prepared properly or decided to leave the hotel at that point. I would love to support this hotel , but hate to feel they were just pulling a bait and switch on a paying customer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r483303406-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>483303406</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is only 1.6 miles away from the airport, so very functional and quiet. The hotel is new, the towels very thick, it has a nice modern shower, TV with Netflx and other internet channels as well as regular tv, bed comfortable, chrck-in quick and efficient, modern decor.There are only 2 things that bothered me: the carpet in the hallway is so thick that the rollers of my luggage did not work very well and mostly the heat in the room did not go higher  than 76F, coming from Flroida where the temperature is at least 82F made my stay a bit uncomfortable due to the fact I was cold all night long.I did not see a lot of business people there probably because it is so new,  it just opened 2 weeks ago.It is in the same category as a brand new Holliday Inn, execpt a bit better but not the quite As luxurious as a new Marriott.I definitely recommed this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, General Manager at Cambria Hotel LAX, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is only 1.6 miles away from the airport, so very functional and quiet. The hotel is new, the towels very thick, it has a nice modern shower, TV with Netflx and other internet channels as well as regular tv, bed comfortable, chrck-in quick and efficient, modern decor.There are only 2 things that bothered me: the carpet in the hallway is so thick that the rollers of my luggage did not work very well and mostly the heat in the room did not go higher  than 76F, coming from Flroida where the temperature is at least 82F made my stay a bit uncomfortable due to the fact I was cold all night long.I did not see a lot of business people there probably because it is so new,  it just opened 2 weeks ago.It is in the same category as a brand new Holliday Inn, execpt a bit better but not the quite As luxurious as a new Marriott.I definitely recommed this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r482988399-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>482988399</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>My Wife and I had an overnight stay at the Cambria and we could not have been more pleased.  Clean, comfortable and the staff was super friendly.  We enjoyed a couple of drinks at the bar area.  Just an overall nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My Wife and I had an overnight stay at the Cambria and we could not have been more pleased.  Clean, comfortable and the staff was super friendly.  We enjoyed a couple of drinks at the bar area.  Just an overall nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r482191145-Cambria_Hotel_LAX-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>482191145</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but housekeeping not good at all</t>
+  </si>
+  <si>
+    <t>So I bucked a stayed for 4 night the first day I got there the housekeeping came up to me introducing her self and said she cleaned my room her name was Silvia she repeated her name like 5 times like if I didn't understood her all I said was thank you second day she came up to me as I was walking out from my room asking if I wanted service I said yes I walked away and she opened my room went In and out and close the door I think she was looking for tips I came back and my room wasn't cleaned why would she go in if she was not going to cleaned it?? The day before I checked out she approached me saying "you leaving tomorrow" I reply saying yes she said "I no work tomorrow you want to give me tip today" I have never been approached by a housekeeper asking for tip One she's getting paid for her work why would she ask for tip?? I won't come back here at all!!! She really made me filled  uncomfortable. I didn't know what to tell her because I did not had cash and my intentions were to leave tip after I checked out but she was a step again of me I think she's in need of money I hope you guys don't get the floor she's working in. MoreShow less</t>
+  </si>
+  <si>
+    <t>953drew, General Manager at Cambria Hotel LAX, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>So I bucked a stayed for 4 night the first day I got there the housekeeping came up to me introducing her self and said she cleaned my room her name was Silvia she repeated her name like 5 times like if I didn't understood her all I said was thank you second day she came up to me as I was walking out from my room asking if I wanted service I said yes I walked away and she opened my room went In and out and close the door I think she was looking for tips I came back and my room wasn't cleaned why would she go in if she was not going to cleaned it?? The day before I checked out she approached me saying "you leaving tomorrow" I reply saying yes she said "I no work tomorrow you want to give me tip today" I have never been approached by a housekeeper asking for tip One she's getting paid for her work why would she ask for tip?? I won't come back here at all!!! She really made me filled  uncomfortable. I didn't know what to tell her because I did not had cash and my intentions were to leave tip after I checked out but she was a step again of me I think she's in need of money I hope you guys don't get the floor she's working in. More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2388,5139 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>115</v>
+      </c>
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>115</v>
+      </c>
+      <c r="X15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O16" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>158</v>
+      </c>
+      <c r="X18" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>158</v>
+      </c>
+      <c r="X19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" t="s">
+        <v>114</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>114</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>273</v>
+      </c>
+      <c r="X32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>195</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>273</v>
+      </c>
+      <c r="X33" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>273</v>
+      </c>
+      <c r="X34" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>293</v>
+      </c>
+      <c r="X35" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>301</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>293</v>
+      </c>
+      <c r="X36" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J37" t="s">
+        <v>305</v>
+      </c>
+      <c r="K37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s">
+        <v>307</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>308</v>
+      </c>
+      <c r="X37" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" t="s">
+        <v>315</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>249</v>
+      </c>
+      <c r="O38" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>316</v>
+      </c>
+      <c r="X38" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" t="s">
+        <v>322</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>316</v>
+      </c>
+      <c r="X39" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>316</v>
+      </c>
+      <c r="X40" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>330</v>
+      </c>
+      <c r="J41" t="s">
+        <v>331</v>
+      </c>
+      <c r="K41" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" t="s">
+        <v>333</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>301</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>316</v>
+      </c>
+      <c r="X41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>316</v>
+      </c>
+      <c r="X42" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>316</v>
+      </c>
+      <c r="X43" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>316</v>
+      </c>
+      <c r="X44" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>353</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>354</v>
+      </c>
+      <c r="J45" t="s">
+        <v>349</v>
+      </c>
+      <c r="K45" t="s">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s">
+        <v>356</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>301</v>
+      </c>
+      <c r="O45" t="s">
+        <v>114</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>316</v>
+      </c>
+      <c r="X45" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>359</v>
+      </c>
+      <c r="J46" t="s">
+        <v>349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s">
+        <v>361</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>240</v>
+      </c>
+      <c r="O46" t="s">
+        <v>114</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>316</v>
+      </c>
+      <c r="X46" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>364</v>
+      </c>
+      <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
+        <v>366</v>
+      </c>
+      <c r="L47" t="s">
+        <v>367</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>368</v>
+      </c>
+      <c r="X47" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>372</v>
+      </c>
+      <c r="J48" t="s">
+        <v>373</v>
+      </c>
+      <c r="K48" t="s">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s">
+        <v>375</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>301</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>368</v>
+      </c>
+      <c r="X48" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" t="s">
+        <v>114</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>383</v>
+      </c>
+      <c r="X49" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>386</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>387</v>
+      </c>
+      <c r="J50" t="s">
+        <v>388</v>
+      </c>
+      <c r="K50" t="s">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s">
+        <v>390</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>240</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>383</v>
+      </c>
+      <c r="X50" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>240</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>383</v>
+      </c>
+      <c r="X51" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>399</v>
+      </c>
+      <c r="J52" t="s">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s">
+        <v>402</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>240</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>403</v>
+      </c>
+      <c r="X52" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>406</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>407</v>
+      </c>
+      <c r="J53" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" t="s">
+        <v>409</v>
+      </c>
+      <c r="L53" t="s">
+        <v>410</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>240</v>
+      </c>
+      <c r="O53" t="s">
+        <v>114</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>403</v>
+      </c>
+      <c r="X53" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>412</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>413</v>
+      </c>
+      <c r="J54" t="s">
+        <v>414</v>
+      </c>
+      <c r="K54" t="s">
+        <v>415</v>
+      </c>
+      <c r="L54" t="s">
+        <v>416</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>272</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>403</v>
+      </c>
+      <c r="X54" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>418</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>419</v>
+      </c>
+      <c r="J55" t="s">
+        <v>420</v>
+      </c>
+      <c r="K55" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" t="s">
+        <v>421</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>272</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>264</v>
+      </c>
+      <c r="X55" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>423</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>424</v>
+      </c>
+      <c r="J56" t="s">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s">
+        <v>426</v>
+      </c>
+      <c r="L56" t="s">
+        <v>427</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>403</v>
+      </c>
+      <c r="X56" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>432</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>272</v>
+      </c>
+      <c r="O57" t="s">
+        <v>148</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>403</v>
+      </c>
+      <c r="X57" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>436</v>
+      </c>
+      <c r="J58" t="s">
+        <v>437</v>
+      </c>
+      <c r="K58" t="s">
+        <v>438</v>
+      </c>
+      <c r="L58" t="s">
+        <v>439</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>272</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>403</v>
+      </c>
+      <c r="X58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>441</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>442</v>
+      </c>
+      <c r="J59" t="s">
+        <v>443</v>
+      </c>
+      <c r="K59" t="s">
+        <v>444</v>
+      </c>
+      <c r="L59" t="s">
+        <v>445</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>272</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>446</v>
+      </c>
+      <c r="X59" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>449</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>450</v>
+      </c>
+      <c r="J60" t="s">
+        <v>451</v>
+      </c>
+      <c r="K60" t="s">
+        <v>452</v>
+      </c>
+      <c r="L60" t="s">
+        <v>453</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>272</v>
+      </c>
+      <c r="O60" t="s">
+        <v>114</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>446</v>
+      </c>
+      <c r="X60" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>457</v>
+      </c>
+      <c r="K61" t="s">
+        <v>458</v>
+      </c>
+      <c r="L61" t="s">
+        <v>459</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>272</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>446</v>
+      </c>
+      <c r="X61" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>461</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>462</v>
+      </c>
+      <c r="J62" t="s">
+        <v>463</v>
+      </c>
+      <c r="K62" t="s">
+        <v>464</v>
+      </c>
+      <c r="L62" t="s">
+        <v>465</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>382</v>
+      </c>
+      <c r="O62" t="s">
+        <v>148</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>446</v>
+      </c>
+      <c r="X62" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>467</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>468</v>
+      </c>
+      <c r="J63" t="s">
+        <v>469</v>
+      </c>
+      <c r="K63" t="s">
+        <v>470</v>
+      </c>
+      <c r="L63" t="s">
+        <v>471</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>446</v>
+      </c>
+      <c r="X63" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>473</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>474</v>
+      </c>
+      <c r="J64" t="s">
+        <v>469</v>
+      </c>
+      <c r="K64" t="s">
+        <v>475</v>
+      </c>
+      <c r="L64" t="s">
+        <v>476</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>272</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>446</v>
+      </c>
+      <c r="X64" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>478</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>479</v>
+      </c>
+      <c r="J65" t="s">
+        <v>480</v>
+      </c>
+      <c r="K65" t="s">
+        <v>481</v>
+      </c>
+      <c r="L65" t="s">
+        <v>482</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>382</v>
+      </c>
+      <c r="O65" t="s">
+        <v>114</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>483</v>
+      </c>
+      <c r="X65" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>486</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>487</v>
+      </c>
+      <c r="J66" t="s">
+        <v>480</v>
+      </c>
+      <c r="K66" t="s">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s">
+        <v>489</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>490</v>
+      </c>
+      <c r="O66" t="s">
+        <v>114</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>491</v>
+      </c>
+      <c r="X66" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>494</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>495</v>
+      </c>
+      <c r="J67" t="s">
+        <v>496</v>
+      </c>
+      <c r="K67" t="s">
+        <v>497</v>
+      </c>
+      <c r="L67" t="s">
+        <v>498</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>490</v>
+      </c>
+      <c r="O67" t="s">
+        <v>148</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>491</v>
+      </c>
+      <c r="X67" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>500</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>501</v>
+      </c>
+      <c r="J68" t="s">
+        <v>502</v>
+      </c>
+      <c r="K68" t="s">
+        <v>503</v>
+      </c>
+      <c r="L68" t="s">
+        <v>504</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>382</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>505</v>
+      </c>
+      <c r="X68" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>508</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>509</v>
+      </c>
+      <c r="J69" t="s">
+        <v>510</v>
+      </c>
+      <c r="K69" t="s">
+        <v>511</v>
+      </c>
+      <c r="L69" t="s">
+        <v>512</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>382</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>513</v>
+      </c>
+      <c r="X69" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>516</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>517</v>
+      </c>
+      <c r="J70" t="s">
+        <v>518</v>
+      </c>
+      <c r="K70" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" t="s">
+        <v>520</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>490</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>521</v>
+      </c>
+      <c r="X70" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>524</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>525</v>
+      </c>
+      <c r="J71" t="s">
+        <v>526</v>
+      </c>
+      <c r="K71" t="s">
+        <v>527</v>
+      </c>
+      <c r="L71" t="s">
+        <v>528</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>490</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>264</v>
+      </c>
+      <c r="X71" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>530</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>531</v>
+      </c>
+      <c r="J72" t="s">
+        <v>532</v>
+      </c>
+      <c r="K72" t="s">
+        <v>533</v>
+      </c>
+      <c r="L72" t="s">
+        <v>534</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>490</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>535</v>
+      </c>
+      <c r="X72" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>538</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>539</v>
+      </c>
+      <c r="J73" t="s">
+        <v>540</v>
+      </c>
+      <c r="K73" t="s">
+        <v>541</v>
+      </c>
+      <c r="L73" t="s">
+        <v>542</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>490</v>
+      </c>
+      <c r="O73" t="s">
+        <v>148</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>543</v>
+      </c>
+      <c r="X73" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>546</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>547</v>
+      </c>
+      <c r="J74" t="s">
+        <v>548</v>
+      </c>
+      <c r="K74" t="s">
+        <v>549</v>
+      </c>
+      <c r="L74" t="s">
+        <v>550</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>551</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>543</v>
+      </c>
+      <c r="X74" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>553</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>554</v>
+      </c>
+      <c r="J75" t="s">
+        <v>555</v>
+      </c>
+      <c r="K75" t="s">
+        <v>556</v>
+      </c>
+      <c r="L75" t="s">
+        <v>557</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>490</v>
+      </c>
+      <c r="O75" t="s">
+        <v>148</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>558</v>
+      </c>
+      <c r="X75" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>561</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>562</v>
+      </c>
+      <c r="J76" t="s">
+        <v>563</v>
+      </c>
+      <c r="K76" t="s">
+        <v>564</v>
+      </c>
+      <c r="L76" t="s">
+        <v>565</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>551</v>
+      </c>
+      <c r="O76" t="s">
+        <v>148</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>558</v>
+      </c>
+      <c r="X76" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>567</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>568</v>
+      </c>
+      <c r="J77" t="s">
+        <v>569</v>
+      </c>
+      <c r="K77" t="s">
+        <v>570</v>
+      </c>
+      <c r="L77" t="s">
+        <v>571</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>551</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>558</v>
+      </c>
+      <c r="X77" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>573</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>574</v>
+      </c>
+      <c r="J78" t="s">
+        <v>575</v>
+      </c>
+      <c r="K78" t="s">
+        <v>576</v>
+      </c>
+      <c r="L78" t="s">
+        <v>577</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>551</v>
+      </c>
+      <c r="O78" t="s">
+        <v>114</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>535</v>
+      </c>
+      <c r="X78" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>579</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>580</v>
+      </c>
+      <c r="J79" t="s">
+        <v>581</v>
+      </c>
+      <c r="K79" t="s">
+        <v>582</v>
+      </c>
+      <c r="L79" t="s">
+        <v>583</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>551</v>
+      </c>
+      <c r="O79" t="s">
+        <v>114</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>584</v>
+      </c>
+      <c r="X79" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>588</v>
+      </c>
+      <c r="J80" t="s">
+        <v>589</v>
+      </c>
+      <c r="K80" t="s">
+        <v>590</v>
+      </c>
+      <c r="L80" t="s">
+        <v>591</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>592</v>
+      </c>
+      <c r="X80" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>595</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>596</v>
+      </c>
+      <c r="J81" t="s">
+        <v>597</v>
+      </c>
+      <c r="K81" t="s">
+        <v>299</v>
+      </c>
+      <c r="L81" t="s">
+        <v>598</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>551</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>592</v>
+      </c>
+      <c r="X81" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65898</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>600</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>601</v>
+      </c>
+      <c r="J82" t="s">
+        <v>602</v>
+      </c>
+      <c r="K82" t="s">
+        <v>603</v>
+      </c>
+      <c r="L82" t="s">
+        <v>604</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>605</v>
+      </c>
+      <c r="X82" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="689">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>AfterDark</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>We stayed twice at this hotel in the past months - the first visit was much better than the second and the difference was significant. First the good points - the hotel is mostly quiet (some noise from adjacent and higher rooms) and comfortable. The rooms are modern but not particularly well fitted out. On our first visit we found the housekeeping very good - the room was clean and the nice notes left by the staff welcome. On our second visit this was not the case - the room was quite dirty - the tiles in the entry were visibly dirty and a few minutes on the carpet barefoot led to the black footprints in the shower that indicates dirty carpet. The front of house staff were mostly friendly but there was one guy who was far from that. Breakfast is not included on the price (an extra $12.95 each from memory and no better than that included for free by other properties). If you'd asked me if I'd stay here again after the first visit I'd have answered yes, now I'm not so sureMore</t>
   </si>
   <si>
+    <t>Pahoua</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r590763706-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Bettina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r590458059-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>The Cambria Hotel LAX is a modern and new Hotel next to LAX. The rooms are spacious, the bathroom has a great shower. We also liked that you can open a window. It was also very quiet and we enjoyed relaxing at the pool before our flight. The Hotel is also very close to the Airport. Also all employees were super nice, helpful, friendly! We stayed at a lot LAX-Hotels but I've to say we liked the Cambria most; we'll be definitley be back!</t>
   </si>
   <si>
+    <t>536pamelas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r587649064-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>Manager Drew Berry went above the call of duty for us regarding a personal matter ..he and his staff proved to be very trustworthy and friendly professionals..hotel very modern and clean..comfortable rooms and nice large fitness center..pool and outdoor patio very nice..hotel is near LAX and a large business area..but welcoming for pleasure stays as well.More</t>
   </si>
   <si>
+    <t>Jake C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r587641622-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -256,6 +271,9 @@
   </si>
   <si>
     <t>I went to the Happy Hour at the Cambria, and was absolutely blown away by the level of professionalism and customer service demonstrated to me by the Bar Manager, Mark. He was very polite, fast in his service, and friendly in his demeanor. Mark is an excellent bar tender and was very knowledgeable and was able to make some stellar recommendations to me. I would go back to the Cambria because Mark made it a fun experience that left an impression.More</t>
+  </si>
+  <si>
+    <t>MCC3303</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r586312453-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -284,6 +302,9 @@
 Free Wifi. Happy hour in the bar from 4 - 7pm.  The bar menu was delicious especially the meatballs, homus toast and fried cauliflower.  The bar staff happy and attentive.  We stayed here on our way home back to Australia.  We had the breakfast this time - good value.  Cold Brew coffee and plenty hot and cold to choose from.  We also used the shuttle to the airport when we left both times.  We advised reception of the time we needed to be at the airport and bus arrived promptly.  10 minute trip to the airport.  We used Uber to visit Hollywood - $37.00 and returned from Beverly Hills $42.00 in peak hour.  Great stop for a night.  Too far from sights if you want to stay....Free Shuttle to and from the airport.  A little difficult to get the shuttle from the airport as it is so busy at the airport.  We seemed to miss one of the shuttles and had to wait for the next round.  Helpful staff to get us into our room early after flight from Australia arrived at 0600 and check in was 3pm.  Offered coffee and just sat and waited. Room was ready by 1000 (we arrived at Cambria from airport at 0800).  The room was large with two queen beds.  Bathroom great with supplies.  Water hot.  Benches near coffee machine and by bed had cup rings that I just had to clean up. Free Wifi. Happy hour in the bar from 4 - 7pm.  The bar menu was delicious especially the meatballs, homus toast and fried cauliflower.  The bar staff happy and attentive.  We stayed here on our way home back to Australia.  We had the breakfast this time - good value.  Cold Brew coffee and plenty hot and cold to choose from.  We also used the shuttle to the airport when we left both times.  We advised reception of the time we needed to be at the airport and bus arrived promptly.  10 minute trip to the airport.  We used Uber to visit Hollywood - $37.00 and returned from Beverly Hills $42.00 in peak hour.  Great stop for a night.  Too far from sights if you want to stay.  Appeared to be plenty of car parking around if you hired a car.More</t>
   </si>
   <si>
+    <t>NeilandConcannon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r581647893-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
   </si>
   <si>
     <t>I stayed at this hotel for 3 nights and It was hands down the best hotel experience I have ever had for the price. From the friendly staff at check-in, expeditious and thorough housekeeping, comfy bed, modern bathroom, location and price. You cannot beat this hotel. Thank you Cambria for making my trip to LA that much better.More</t>
+  </si>
+  <si>
+    <t>LJaneUK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r581613347-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -335,6 +359,9 @@
 The room was great - clean, modern and comfortable with huge king size bed.  We had a large walk-in shower in the bathroom.  Just one issue - the bathroom door is extremely thin, so you need to know...We spent two nights here to meet up with family, and we enjoyed all aspects of our stay.  The hotel is very convenient for LAX, no more than a 10 minute drive, and with easy, free parking.  There is also a shuttle bus from the airport which runs every half an hour or so.  The hotel is in a fairly soul-less industrial park, but it's quiet and it's only a short drive to shops, bars, restaurants and supermarkets.  It's also not very far from the coast; we spent one morning on Manhattan Beach which was only about 15 minutes' drive away.The breakfast buffet was really very good - fantastic bacon! - and the staff were very attentive.  Breakfast isn't included though, although it was a fairly reasonable $12.95.  There is a bar which opens in the evenings and a small convenience facility selling drinks and snacks, but you'd need to go out to get some food or order something to be delivered as there is no restaurant.  We loved the pool area and spent one afternoon just relaxing on the patio.  The water was warm and the loungers are super comfy.  We didn't use the gym, so can't comment on that.The room was great - clean, modern and comfortable with huge king size bed.  We had a large walk-in shower in the bathroom.  Just one issue - the bathroom door is extremely thin, so you need to know your room-mate very well, or not be easily embarrassed! I would happily stay here again on a trip to LA, especially if I wanted to be close to LAX.More</t>
   </si>
   <si>
+    <t>elliotstamler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r581497443-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -353,6 +380,9 @@
     <t>I stayed for 4 nights/days at the Cambria in Dec., 2017.  It is about an 8 minute drive directly south of LAX in El Segundo in a quiet office-bod area.  It's a moderately sized, very new, modern  and well appointed hotel with reasonable prices and a very helpful, friendly staff.  I didn't take advantage of the various amenities such as the gym, pool, etc. but they're available-it's a block to two from many more restaurants on Sepulveda Blvd.The Cambria has a particular amenity now rarely found at LA hotels...free, spacious parking.  Important as most hotels sock you for up to $30 per day for parking in this car-required city.  I made some recommendations upon departing to the hotel staff including installing grab bars in the bathroom shower - important for older-aged guests.I will stay there again and I heartily recommend the Cambria to others.More</t>
   </si>
   <si>
+    <t>justinwyattgause</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r579554245-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -380,6 +410,9 @@
     <t>Stayed one night for a medical boards examination, and had a fantastic time.  The hotel is clean, the staff is courteous, and the place has an overall professional feel.  Special shout out to Mark the bartender, the guy is fantastic.  Excellent drinks, excellent conversations.  You have to check it out and have a drink.  I'll definitely go back.More</t>
   </si>
   <si>
+    <t>andrew_branham</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r577635292-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -398,6 +431,9 @@
     <t>This is a very nice business-oriented hotel conveniently located a stones throw from LAX. The hotel is very modern with all sorts of mobile technology, a large TV, Netflix and plenty of places to “plug-in”. The bar and restaurant are a nice added convenience. The fitness center is average - with a few cardio machines but very limited weights. The pool is tiny (don’t come for the pool). The only negative for me was the very loud blaring music pumping in the lobby and outdoor courtyard. The music was so loud in the courtyard that I had to call the front desk and ask them to turn it off so I could sleep (which they kindly did). All in all a nice hotel for business travelers to the area.More</t>
   </si>
   <si>
+    <t>rtravlz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r576102417-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -419,6 +455,9 @@
     <t>My favorite things about this hotel are the free parking, very large TV, and comfortable bed. The location isn't great...it's in an office park a good walk from most things. The bathroom, while nice was not designed very well. The half glass wall shower enclosure is not sufficient enough to keep the water from splashing onto the main bathroom floor. The door to the bathroom slides closed, but not fully private. The room was not cleaned very well: Scuff marks on the tile floor entry way, dirty furniture. Finally, the free airport shuttle service was an awful experience. Cambria shares a hotel shuttle with 5 or 6 others in the area. I waited 25 minutes for it even though I reserved it the day prior. Overall I would only stay here if the price was under $120 a night. There are TONS of very nice, very affordable hotels around LAX. This one just didn't stand out to me.More</t>
   </si>
   <si>
+    <t>Cody G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r574269276-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -437,6 +476,9 @@
     <t>Been here twice now and wouldn’t stay at a different hotel in this area. Not only are there great room, food, accommodation but the bar tender Mark who is alone most nights really doesn’t make it seem that way. Mark is one of the main reason I came back to this hotel and plan to come back again.More</t>
   </si>
   <si>
+    <t>Anne C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r573191873-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
   </si>
   <si>
     <t>This is a good hotel in a convenient position close to Los Angeles airport and easy for sightseeing. There is plenty of car parking space.The reception staff were friendly and helpful. Our rooms were comfortable and well equipped.The breakfast was good and it is also possible to get an evening meal. The menu is not big but there was enough choice for us all.The children were pleased to see a swimming pool but sadly it was too cold. More</t>
+  </si>
+  <si>
+    <t>BMLNewZealand</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r572772956-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -486,6 +531,9 @@
 And the staff...  We have a reservation for later in the year, and I asked Teresa (who was amazing)  at the front desk if it was possible to view a Tower Room.  She was unable to find another staff member to escort me to view the room immediately,  but as the Manager was nearby, he so kindly stepped up and offered to accompany me.  I was really impressed.  Another young man at the front desk (sorry, I didn't catch...Stayed three nights in a King Suite on the 4th floor.  Very quiet. Super comfy bed, lovely linen.  Big TV, lots of channels.  Great corner sofa.  Block out roller blinds, and nice sheer curtains.  Big desk. Plenty of charging points. Good lighting. Laptop sized safe in the wardrobe.  Small frig. Simple pod-style coffee maker (with china cups). HUGE bathroom, excellent water pressure. Very clean. Self service laundry, one washing machine and one dryer, $1.75 for each machine.  Plenty of free parking. Free Internet was very fast. Very efficient air conditioning too. The only minor negative - I would have liked a little more drawer space. At check-in I was offered points or a beverage in the bar.  (A drink sounded perfect). Then I was given a really cute porcelain coaster to present to the barman who then signs the back of it, and gives it back as a memento.  Really nice touch. Comfortable and spacious bar, tasty snack and dinner menu. And the staff...  We have a reservation for later in the year, and I asked Teresa (who was amazing)  at the front desk if it was possible to view a Tower Room.  She was unable to find another staff member to escort me to view the room immediately,  but as the Manager was nearby, he so kindly stepped up and offered to accompany me.  I was really impressed.  Another young man at the front desk (sorry, I didn't catch his name) was also extremely helpful and friendly.  It makes a big difference when the staff acknowledge you when you are walking through the reception area.More</t>
   </si>
   <si>
+    <t>Glenn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r570582090-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -513,6 +561,9 @@
     <t>This is a very clean and modern property. It's brand new, and I found the staff to be friendly and helpful. I was given the choice of either a free drink or 500 points for my stay...and of course, I had a drink...).The Wifi is strong and fast, and included with your stay. Have stayed twice now, will definitely use this hotel again.More</t>
   </si>
   <si>
+    <t>MrPerryN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r570253524-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -531,6 +582,9 @@
     <t>My wife and I went out to visit our oldest son who lives in the area, and I am always startled at the cost of even basic hotels. I usually stay at a Marriott or Hilton branded hotel, but even open to ones like Holiday Inn Express.  The most reasonable one we found was Cambria, which is a Choice hotel. It was modern, clean, good Internet and lots of USB plugs in open areas to charge phones and such.Only think that I wish was different is breakfast.... I am used to most of the hotels of that type having a free breakfast, but they charge $12.95. They did have a nice bar, back patio and pool as well. All in all, I felt it was a good value so I gave it 4 starsMore</t>
   </si>
   <si>
+    <t>gl02018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r568196842-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -549,6 +603,9 @@
     <t>After an extra long day of travel Mark kept the bar open an hour late and served us our complimentary drink with a smile.  Love love love this hotel!  Great value and excellent for business travel.  Will definitely stay again.More</t>
   </si>
   <si>
+    <t>bigeaterNYC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r566388450-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -571,6 +628,9 @@
   </si>
   <si>
     <t>My review says I stayed here in March but truth be told my work has brought me to El Segundo 5 times and every time I've stayed here. Cambria has been a lifesaver. The hotel is super comfortable and fantastic in so many big and little ways; the rooms are super clean, the shower has great pressure, the gym and pool are perfect, I can always rely on their kitchen, being able to do laundry means I can pack lightly, walls are well insulated for a light sleeper like me and most importantly is the staff!! Amazing folks across the board. Susie, Michelle, Eddie, Moneret and a few others I feel ashamed to have forgotten their name are always at the front to greet you with a smile and incredibly attentive. Mark at the bar is the best - knows my name, knows what I like from the menu and always ready with a joke to help me unwind after a long day.Can't say enough about this place and the people here to make your stay great! Come down, stay a few nights and you'll see what I'm saying.More</t>
+  </si>
+  <si>
+    <t>TravelManagerLoveIt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r564155048-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -608,6 +668,9 @@
 The bar and restaurant menu was pretty good and not overpriced as is normally the case at an airport hotel (or any other hotel for that matter). I enjoyed one of the tasty flatbreads with a glass of wine at Happy...Spent 2 nights here on a work trip. Hotel relatively new andeasy access by shuttle from LAX- only tip is to call the hotel for your shuttle when you have your luggage (and are making your way to the pick up point) as while it regularly does the airport run; the van is part of the car park loop, and it may not always stop. I saw 2 vans go past me which was a pain after arriving late evening into LAX. The hotel staff at the front desk were fantastic and very helpful. There is a guest laundry on the ground floor (near the gym). It is free but you need to buy the soap (available on site and not expensive either). The room was huge- I had a corner suite and the amenities were great. Very comfortable for work. The bathroom is well appointed and the bluetooth mirror was a fun surprise! quite a novelty really!The only thing I would point out to management is the need for an extra towel hook or two in the bathroom as the rail under the bathroom counter, while reasonable, wasn't the best place for the bath towel to hang. The bar and restaurant menu was pretty good and not overpriced as is normally the case at an airport hotel (or any other hotel for that matter). I enjoyed one of the tasty flatbreads with a glass of wine at Happy hour and it was a bargain. There were quite a few people travelling for business and I spoke to one person who said they wouldn't stay anywhere else in the area. It was clean, convenient and well-priced. The lobby is quite spacious and good if you have a casual meeting too. The hotel is also very close to Manhattan Beach and shopping.You will need to book the shuttle to return to the airport, but just see the front desk to do this. It will take 10-15mins max (depending on no. stops en route) to get to the airport, so factor this into your planning. I'll definitely be back :)More</t>
   </si>
   <si>
+    <t>lidoville</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r560777650-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -635,6 +698,9 @@
     <t>Excellent staff made us feel very welcome nothing was too much trouble.Beautiful modern decor we had a thoroughly enjoyable and relaxing five night stay. The outdoor terrace with pool and fire pit is a delight. Dedicated office area free of charge is a nice touch along with the gym. The buffet breakfast is more than adequate fresh and tasty.More</t>
   </si>
   <si>
+    <t>Dana T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r559497950-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -662,6 +728,9 @@
     <t>Stayed in this hotel the night before a flight, finding it on Priceline. I was pleasantly surprised at how nice it was and how comfortable the night ended up being.A very modern hotel. Very clean. Very quiet.  The only bummer is that there is no hot tub, which seems off, considering the quality of the hotel. Suzy at the front desk was also extremely helpful and VERY sweet, allowing me a late check out at 2:00, so I didn't have to sit at LAX for an extra 3hours before my flight...it was above and beyond normal customer service I have received in hotels. Thank you Suzy!!I will DEFINITELY stay at this location again in the future. Its also about 9 mins to LAX and 3min drive to food and shopping.  Also-FREE PARKING!More</t>
   </si>
   <si>
+    <t>jasonlaumeister</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r559458090-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -677,6 +746,9 @@
     <t>I've stayed at this Cambria property for more than 6 week in total. Less than a year old, the property is well appointed and modern. Super close to LAX airport with a free shuttle.Nice pool and large modern gym. Unfortunately no hot tub, but the outdoor area is beautiful and features a large fire you can sit around in the mild California evenings. Small bar and restaurant is open for breakfast and dinner. Kitchen and bar management is professional and accommodating. Housekeeping and front desk provide a level of personal service you don't see outside of a big city hotel at 4 times the cost. My absolute favorite hotel in the area.More</t>
   </si>
   <si>
+    <t>jaffacake83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r559188173-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -701,6 +773,9 @@
     <t>We recently stayed here for 5 days. We did have trouble finding it as it's entrance is in a car park but if you look for ' Northrop Grumman', follow that as they share a carpark. The lady on reception was extremely helpful and patient with me when i kept calling though. Our room was lovely, clean and spacious and i had a wonderful nights sleep each night. The breakfast was very nice with a selection of fruit, bacon, bagels, yogurts, cereals etc and our burger in the restaurant was delicious.Lots of attractions are within 1 hour driving distance or the metro is only a 5 min walk. Once we'd left my partner realized he had left some belongings in our room. Yet again the staff were very helpful and these were retrived very quickly. When we picked our belongings up, we were on our way to Las Vegas so had a 4 hour drive ahead. The guy on reception very kindly gave us some free drinks for the journey which was the perfect final touch. Thanks for a great stay!More</t>
   </si>
   <si>
+    <t>Cheryl D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r555717759-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -725,6 +800,9 @@
     <t>We enjoyed our stay at the Cambria.  We picked it because we were able to use Choice Hotel points and because the parking is free. We hadn't stayed in El Segundo in quite awhile and were very surprised at how much most of the hotels are charging for parking. The hotel is very clean and modern.  We had drinks and snacks in the bar area, and ate breakfast there the next morning.  The breakfast is not complimentary, but the price was reasonable.More</t>
   </si>
   <si>
+    <t>Homer D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r555282538-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -743,6 +821,9 @@
     <t>We visited kids and grandkids during Christmas and stumbled across the newly constructed Cambria on El Segundo Blvd by LAX. great location great place and great prices. A must stay place if kicking sand on all the best beaches in the area. We loved it and will definitely stay there againMore</t>
   </si>
   <si>
+    <t>Nicole M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r553260786-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -768,6 +849,9 @@
   </si>
   <si>
     <t>We stayed here on a 3-day layover to Maui, and we couldn't have been more happy with our stay. Now, I'll admit, the property's location is a bit odd -- sandwiched in between office buildings -- but the amenities are on-part with some of the mid-range, business class hotels we've stayed at. What we loved:- When you walk in, and to your left, there is' a hot spot area where you can plug in your laptops and get to work. The floor to ceiling windows, and the natural light, is amazing. There's also a bar in the lobby -- which, after a long travel day, we gladly reveled in two drinks before sitting at the outdoor fire pit and then retreating to our rooms. Love the room. It's small, but it has everything you need. We loved the bluetooth bathroom mirror, and we definitely played our music through it!Breakfast was also good. Would we stay here again -- absolutely. Since you have to drive everywhere in LA, Cambria offers a nice respite from the crazy hustle and bustle -- but is still close enough that you can touch it.More</t>
+  </si>
+  <si>
+    <t>PeterBCrewe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r549214661-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -813,6 +897,9 @@
 And so to dinner 😕. Very poor choice, no room service, we elected to eat in our room as the cafe area is simmilar to what most people have at...My wife and i booked here as we were departing LAX next morning.Cambria is located amongst dull grey office blocks surround by run down industrial units. The interior of this hotel is very much like being in an office block.The place is clean and the bed was comfortable, other than that it was very dissapointing.Reception was unnfriendly, unhelpfull and misleading. There was no assistance with our luggage to or from the room, just a "do it yourself trolley ".The only food available at lunch time was from vending machines.Reception told us it was a short walk to restaurants,  we set off following the map provided and found ourselves amongst run down and closed industrial units walking along walkways overgrown with weeds. It could have been a dangerous situation. A quick call to uber and a surprised, friendly drive delivered us to a nice restaurant. NB there is no decent food within reasonable walking distance.We are both able bodied but had a room designed for wheelchairs.The shower floods the bathroom floor making it slippery and dangerous. The manager was called to view it and provided 8 large bath towels which covered the floor. Problem was that the floor slopes AWAY from the drain hole!!.And so to dinner . Very poor choice, no room service, we elected to eat in our room as the cafe area is simmilar to what most people have at work. Our so call meal was handed to us in plastic boxes, in a paper carry bag with cheap plastic utensils. Not what we were hoping for on our final night in USA. The shuttle to LAX was an old bus with a friendly helpfull driver. It called at other hotels en-route.After our complaints about the hotels service, reception, lack of facilities etc the manager reduced our bill slightly, but people still need to know what to expect from this establishment. All in all a very dissapointing experience. If you a looking for a real, traditional hotel this is definitely not it. It is really just a "rent a room"More</t>
   </si>
   <si>
+    <t>roccoOceanside_ca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r548742087-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -831,6 +918,9 @@
     <t>Stayed the night before an early flight. Was pleasantly surprised by nice room, friendly staff, even a complimentary drink offered at check in. The only negative was the people directly above us who commenced to party at 2:00 AM. I contacted front desk several times. They quieted down a bit, then start right up again!!! Not the Cambria fault, just inconsiderate people. I did offer them a free wake up call at 5:00 when we left More</t>
   </si>
   <si>
+    <t>Jorgecarlo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r547899685-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -855,6 +945,9 @@
     <t>It's Very new and have modern designed rooms. Great staff in general and at the front desk, special thanks to Gisamy for introducing me to Susy the front desk supervisor who was very helpfull in my decision of nearby eating places Highly recommended !More</t>
   </si>
   <si>
+    <t>llc2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r545305510-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -882,6 +975,9 @@
     <t>Well designed rooms! Very quiet and stylish down to little details not to mention cleanliness. The locations is rather convenient as well. I only stayed 1 night, but it was the quietest stay I had for a long time. Many hotels that I had stayed at have noise issues from corridors and windows, but no issue at Cambria. The lighting in the room was well thought out as well. No dark rooms as some of the other business hotels tend to be. Highly recommended!More</t>
   </si>
   <si>
+    <t>Camille C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r544830225-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -900,6 +996,9 @@
     <t>I just wanna say that Monroe and Teresa were very helpful and made our stay very wonderful. They gave the best customer service. I would definitely stay here again. I also liked how it was very low-key lol. Amazing hotel for a very great price. More</t>
   </si>
   <si>
+    <t>Bryana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r544458848-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -918,6 +1017,9 @@
     <t>My husband and I stayed at this hotel for a week. We absolutely loved everything about it. The staff were all very nice and helpful. The room was so comfortable, spacious and up to date. The bathroom had an electric mirror that connects to Bluetooth so you can play music, very cool. Our room and entire hotel were very clean. We checked in on thanksgiving day so we were greeted with a welcome bag filled with a delicious blueberry muffin and sparkling cider. Convenient location to airport, free parking, and a shuttle to the airport. The bed and pillows were SO comfortable. Best thing to come back to after a long day of exploring. The lady that checked us in even mentioned that she saw we were going to be staying there for awhile and made sure to give us a quiet room in the corner away from the elevator. Doesn't get better than that. I would highly recommend this hotel and will definitely return! Thanks, LAX Cambria for a great week!More</t>
   </si>
   <si>
+    <t>kristenbobisten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r542734597-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -942,6 +1044,9 @@
     <t>Great new hotel near LAX, with a great bar. Matt the bartender was so awesome and fantastic! He made the stay so fun that we didn’t leave the hotel bar to go out. The place is clean, and the customer service is fantastic.More</t>
   </si>
   <si>
+    <t>jameslumadue92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r541616402-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -963,6 +1068,9 @@
     <t>The Cambria is a very nice hotel with welcome new additions such as the speaker in the mirror in the bath room and the cozy atmosphere of the bed space. I was pleasantly surprised at how modern and different this hotel was from the others dated hotels in the area. That is what made the experience memorable. I had an original reservation with the Hyatt LAX which had fallen through and the Cambria came through for us! Would absolutely stay again. Great room, great service, great stay.More</t>
   </si>
   <si>
+    <t>Professor-Dragonfly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r541280890-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -987,6 +1095,9 @@
     <t>This hotel is a gem and the service is excellent.  I would especially like to mention Teresa at the front desk. She is friendly, knowledgeable and her  customer service skills are outstanding.  Employees like Teresa make this hotel even more special and inviting.  Thank you Cambria and Thank you Teresa.  (Give this lady a raise)! More</t>
   </si>
   <si>
+    <t>Sixx S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r539566305-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1011,6 +1122,9 @@
     <t>Between Mark the bartender and Keila at the front desk have made my time here absolutely enjoyable.Everytime we come Keila greets us with charm and grace.Mark the bar tender always knows what we want and provides service with a smile.I will always stay here because of these two.Thanks for your great hiring practices Cambria!!!!I love these people which makes me love this place!More</t>
   </si>
   <si>
+    <t>Robbie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r539566234-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1026,6 +1140,9 @@
     <t>One of the better choice hotels I’ve had the opportunity of staying at. The rooms were spotless and upgraded beautifully. The front desk associate Keila went above and beyond to make sure me and my parties needs were taken care of. It’s also kind of out the way which is good for traffic. Will be sure to stay here whenever I’m in town More</t>
   </si>
   <si>
+    <t>Dep605</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r539524752-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1041,6 +1158,9 @@
     <t>Pros...Hotel was new and clean. Modern amenities in room. Great shower. Comfortable bed with a lot of pillows.  Large flatscreen tv on the wall in front of bed. Free parking is rare and always a plus in the LA area. Tons of available parking spaces. Felt safe. Nice seating area outside by the pool with a fire pit. Good bar. Good shuttle service.  Zero problems with check-in or check-out. Cons...Breakfast was really the only disappointment. Its not free (Just FYI purposes)and it kind of felt like breakfast was an afterthought and not really a priority.  No big deal. Just ate breakfast elsewhere.Going back to the LA area in April 2018.  If the price hadn't changed I would definitely be staying there again.  Its $212/nt now. I somehow found a deal and paid $120/nt in October. Two thumbs up overall.  Just keep the breakfast opinion in mind and the rest of the hotel should make you happy.More</t>
   </si>
   <si>
+    <t>AucklandDevon11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r538605151-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1059,6 +1179,9 @@
     <t>A reasonably new Hotel we understand about 3 miles from LAX, so if dont want the planes buzzing you a good spot.Down side is it is built in a large car park and nothing around you.  You need transport to get any where, we mastered Uber whilst here.Arrived late morning checked straight in pleasant staff in a small Hotel.Couldnt get anything to eat as restaurant is only open at night and for continental complimentary breakfast which was simple but fine. Closest fast food prob about a 20 min walk.  Didnt bother.Rooms were large, thought getting a seperate bedroom in the large suite, but all one room.  Did find hair in the shower,  Also for new place a couple items broken furniture one a table which should have been taken out as unusable, and bedside table falling over.Nice bar area, and restaurant tried once and we were sole diners, menu was fine and food good, all organised ( hope not cooked) by on duty barman.Used pool area which was nice but pool could have been better cleaned.If you dont want the ambience of the larger hotels by LAX then worth a stay.  Taxi was about $20 usd from airport (15min) , had arranged shuttle but never heard back from hotel, they do have a free airport shuttle or will use Uber next time.  About $17 for 45 min to Santa Monica.More</t>
   </si>
   <si>
+    <t>catjja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r538105075-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1077,6 +1200,9 @@
     <t>WE needed a hotel that had free shuttle to LAX.  This was very modern and the rooms were lovely and beds were so comfortable.  The staff was wonderful.  Complimentary breakfast in the morning was very nice.  The showers were heavenly!  The only negative was that you could hear people in the hallway and luggage rolling down the floor.More</t>
   </si>
   <si>
+    <t>Brian P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r537705938-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1095,6 +1221,9 @@
     <t>I book my room through travelocity (big mistack) but thanks to Susy, and her hard work and effort we got it resolved..I have stayed at many hotels but because of Susy I would only stay at this hotel when i come to LA...her and the staff was so nice and helpful and me and my son had an amazing time because of it.The hotel itself is very nice and rooms are amazing!!! if you are coming to LA for the beaches I would definitely stay at this hotel!!!!BrianMore</t>
   </si>
   <si>
+    <t>juddbean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r536502457-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1113,6 +1242,9 @@
     <t>Stayed recently at Cambria LAX on business and had the best bartender ever. Mark Pradin was funny and entertaining and the service outstanding! Each evening we looked forward to the atmosphere and service provided. More</t>
   </si>
   <si>
+    <t>luikart4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r536410343-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1128,6 +1260,9 @@
     <t>hotel was very modern and clean with a nice staff. Mark the bar tender entertained us nightly. Me and my coworkers spent more time at the hotel for our entertainment then going out on the town. Mark if you get to read this you did a great job! and if I ever come back I'll look you upMore</t>
   </si>
   <si>
+    <t>rickielj08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r536400151-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1143,6 +1278,9 @@
     <t>Mark the bartender was awesome. He made my experience in El Segundo great. His service and attitude was the best. The hotel was in great shape and the rooms were very nice but that doesnt compare to the service that Mark gave us.More</t>
   </si>
   <si>
+    <t>TheThoughtReport</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r533396821-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1167,6 +1305,9 @@
     <t>We stayed here in the first week the hotel opened and were very impressed. The location was perfect to get to the airport and all tourist spots that we wanted to visit. The reception staff were very helpful and friendly, we were always greeted with a warm smile and hello. The rooms were very well equipped with a comfortable bed, lovely bathroom, large tv and coffee machine. The pool looked lovely but we did not use it due to the weather. Parking and Wi-fi was free at the hotel which is a great selling point. We will definitely stay here again if we visit LA. More</t>
   </si>
   <si>
+    <t>Suzanne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r532882442-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1185,6 +1326,9 @@
     <t>Great location, close to LAX. Convenient to get to. Nice new hotel at a very reasonable price. Spacious rooms, very clean and comfortable. A basic cold breakfast is included which is plenty for us when travelling, however be sure you go down to breakfast early as food appears to only be laid out once and not refilled except for bread. The second day, when we got up later, there was no juice left, no cereal left and no yogurt left. There was only bread and English muffins.More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r530850023-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1212,6 +1356,9 @@
     <t>First time staying at this hotel, and would definitely come back when working around LAX. A very good business hotel with everything you need. Pool area looked nice, although my schedule didn't allow me to use it.More</t>
   </si>
   <si>
+    <t>Sue G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r527134697-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1230,6 +1377,9 @@
     <t>Spent a night here before flying out of LAX.  Very clean, comfy and modern room.  Staff was excellent, accommodating and even texting us to see if there was anything else we needed.  Would highly recommend and would definitely stay there again.More</t>
   </si>
   <si>
+    <t>FrkNilsson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r526882004-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1248,6 +1398,9 @@
     <t>The wifi is awesome. The rooms are new and fresh. The breakfast good. The personnel is what put the gradings down, didn't explain the breakfast times and gave us two queen beds instead of one king bed.More</t>
   </si>
   <si>
+    <t>shantay m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r524718654-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1272,6 +1425,9 @@
     <t>Pros:Clean propertyNear freewaysGreat workout room Free parkingHappy hourMini frigPlenty of charging ports Microwave in lobbyIron has a spotlight attachedSnack for purchase in lobbyCons:Spotty internet 1 computer and 1 printer in business centerYou can hear guest above walking around every nightPoolside rooms: guest very loudPoor bathroom lighting New designed shower that leaves water on the floorNo restaurant and nothing within walking distance Noisy mini frigSmall closet Some lights in the room don't workMore</t>
   </si>
   <si>
+    <t>AADill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r523111466-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1290,6 +1446,9 @@
     <t>Hands down the best LAX hotel by far. If you are a business traveler or frequent LAX traveler there is no better place than Cambria.  The hotel is brand new and has a very warm yet modern California vibe. I am a Starwood loyalist but the Starwood/Marriott and other big chains can't compete with Cambria as all the hotels around LAX are too big and too old. As the Cambria Hotel is new, everything from the scent of the hotel to design was just as you wish for a hotel experience. The bath products and amazing breakfast exceeded my expectations. I was traveling for business but would recommend this hotel if you are looking to stay in the South Bay for a family holiday. The pool is great with California style pool cabanas. The restaurant had a great vibe and I loved sitting at the bar chatting with other travelers. Again, this hotel is by far the best. If traveling through LAX, I would highly recommend the Cambria hotel. More</t>
   </si>
   <si>
+    <t>ClaireBakker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r523003695-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1308,6 +1467,9 @@
     <t>My boyfriend and I stayed in this hotel after a long flight from the Netherlands. The hotel is very conveniently located, close to the airport which was great for us. Enough parking space available.The hotel itself is very modern and stylish. Rooms are new, great king beds and a nice shower! Everything was perfect!!More</t>
   </si>
   <si>
+    <t>E7991PXgeorget</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r522049170-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1323,6 +1485,9 @@
     <t>New property and was very impressed with the room, customer service, amenities, shuttle service, etc.  Timely to pick us up and even though they stopped at other properties with guests, the ride was not that long.  Very quick on the check in &amp; out, quiet location with plenty of parking for those that are driving.More</t>
   </si>
   <si>
+    <t>Shan_Reddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r519048782-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1341,6 +1506,9 @@
     <t>This is a fairly new hotel with nice feel and decor. Beds were super comfortable. I liked the Bluetooth and speaker system integrated into the mirror inside the bathroom, can play songs while taking shower.. nice and fancy feature.More</t>
   </si>
   <si>
+    <t>My4mdjz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r517729251-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1359,6 +1527,9 @@
     <t>When I first pulled into the parking lot I was feeling good about this place. Clean grounds, friendly front desk staff, speedy check in process.... and the room....AWESOME!!! It was spacious, I loved the little trendy touches here and there and the Bluetooth mirror in the bathroom. I stayed at the property for 2 days. After returning from being out all day the first night, my bed was turned down and fresh towels were left. I didn't even sweat the note from the attendant stating she wasn't able to change my sheets because they're weren't any clean ones at the time. It was just me so... no biggie. When I checked out the next day, I stopped by the front desk to inquire about the turn around time for the deposit to be refunded and obtained a copy of my invoice. All charges indicated were correct. To my surprise though, when I checked my account online a day and a half later, there was a charge from them for $250. I immediately called and was told "housekeeping charged you a smoking fee". I was EXTREMELY upset because #1, I DO NOT SMOKE!!!  I was told I needed to contact the GM to dispute the charge. The very next morning I sent an email to the GM and Asst GM. The GM was apparently out of town for a week so I called and followed up with the asst. He advised...When I first pulled into the parking lot I was feeling good about this place. Clean grounds, friendly front desk staff, speedy check in process.... and the room....AWESOME!!! It was spacious, I loved the little trendy touches here and there and the Bluetooth mirror in the bathroom. I stayed at the property for 2 days. After returning from being out all day the first night, my bed was turned down and fresh towels were left. I didn't even sweat the note from the attendant stating she wasn't able to change my sheets because they're weren't any clean ones at the time. It was just me so... no biggie. When I checked out the next day, I stopped by the front desk to inquire about the turn around time for the deposit to be refunded and obtained a copy of my invoice. All charges indicated were correct. To my surprise though, when I checked my account online a day and a half later, there was a charge from them for $250. I immediately called and was told "housekeeping charged you a smoking fee". I was EXTREMELY upset because #1, I DO NOT SMOKE!!!  I was told I needed to contact the GM to dispute the charge. The very next morning I sent an email to the GM and Asst GM. The GM was apparently out of town for a week so I called and followed up with the asst. He advised me that he would look at the "pictures" and get back to me. I asked that those said "pictures" be forwarded to me as well because for someone who doesn't smoke to be charged for smoking in a room, I needed to see what this was all about. I called back again after not hearing back from the asst GM prior to the end of the day. He simply said, "Oh I sent you an email. We're good. I'm refunding your money. The executive housekeeper that added this charge is no longer with the company and none of the housekeepers that worked that morning know what this is about". Strange as all get out!!!! Smh. Keep in mind, I never obtained those "pictures". I will say that I was very impressed with the property and was looking forward to staying there again. I travel to the L.A. area often and since my mom passed away early this year, I now have to stay at a hotel. I'm appreciate the fact that mgmt handled the situation in a timely manner and I'm so glad I double checked my bank acct. I really wished I could give them more stars, because the hotel itself deserved it but that $250 charge left a very bad taste in my mouth.  More</t>
   </si>
   <si>
+    <t>review10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r517110932-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1377,6 +1548,9 @@
     <t>We had a wonderful one night stop-over stay.  Normally stay at 5 star hotels but as we needed to be near the airport after a long flight picked this hotel. We were very pleased we did.  The hotel is new and modern with a great relaxing vibe.  The staff were lovely and helpful.  For what we paid the room was a great size.It is a wonderfully thought out property.  The mirror in the bathroom was amazing.  You could link your phone to it and it played music!  Even impressive for my teenage son:)Overall the value of money was impressive. Well done to the Cambria brand I will definitely be staying again and would recommend this hotel without hesitation.More</t>
   </si>
   <si>
+    <t>grnstmp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r512291141-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1401,6 +1575,9 @@
     <t>The hotel has been open only a few months.  The beds are very comfortable and there is state-of-the-art television and internet.  A member of the front desk staff, Eddie, was particularly helpful not once but twice!  He resolved an incorrect room  assignment and assisted us with a future reservation, all with a very pleasant and efficient demeanor.  He is the perfect first-contact for arriving guests.More</t>
   </si>
   <si>
+    <t>edwardz888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r511280269-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1419,6 +1596,9 @@
     <t>New modern clean rooms, friendly staff, new exercise room, music lights, TV. Will stay again.  Large TV, even chromecast builtin, streamed a movie from my phone. Fast free internet. Location is great, near many corporations in El SegundoMore</t>
   </si>
   <si>
+    <t>lynn76532017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r510651765-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1435,6 +1615,9 @@
   </si>
   <si>
     <t>Stayed in Room 528 for a 4-day mini vacation.  Our housekeeper Vanessa was great.  She kept the room neat and tidy, even adding a personal touch by sitting my child's teddy bear on the pillows every day.  The front desk staff were very attentive and friendly, as well.  Also, the no pet policy was a breath of fresh air.  The hotel lobby, rooms, and bar area are all very sleek with a minimalist decor.  The heated pool was a big plus too.  And lastly, they have FREE &amp; AMPLE PARKING!!  I'd definitely book this hotel again.More</t>
+  </si>
+  <si>
+    <t>Steven D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r508871281-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -1465,6 +1648,9 @@
 The room was equipped with...I was very pleased with my one night stay at this Cambria Hotel. The hotel appears to be very new and has a very modern feel to it. The location wasn't great as it is a bit out of the way and it is set back from the street behind buildings and a parking lot. There is an airport shuttle and the Green Line rail station is within walking distance, but if you are here for more than a day, having a car would make the experience much better. Check in was quick and the staff member was very friendly. The lobby and public areas were very nice and the elevators were very efficient. There was a small display of snacks and beverages that appeared to be available for purchase. My room was nicely decorated and very comfortable. In addition to the bed, there was a nice lounge chair and small table by the window and bedside tables with lamps. The bathroom was very nice with a walk in shower (no tub) and very nice toiletries. The mirror had some sort of blue tooth system built in. My one negative was that lighting in the bathroom was not great for shaving. I work on the road and there was a spacious desk with a comfortable chair and a work light. Internet service was very good. Some really understands what makes for a great hotel room. The room was equipped with a small refrigerator and a very nice coffee maker with better than average coffee packs. Breakfast was available in the hotel but was not included in the room rate. I would recommend this Cambria hotel with no reservations.More</t>
   </si>
   <si>
+    <t>Shelly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r508424947-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1483,6 +1669,9 @@
     <t>Felt like it just opened for business yesterday.  Everything looked brand new and was ultra clean.  Even the bathroom mirror was Bluetooth audio with volume controls built into the glass. I guess you can't get more modern than that. More</t>
   </si>
   <si>
+    <t>Keith E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r508408727-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1498,6 +1687,9 @@
     <t>We can to California on vacation to visit Hollywood and Universal Studios. This hotel was only 25 miles away. I'm so glad the other closer more expensive hotels were booked up. Everyone made us feel extremely welcome. We ended up staying 5 days here. I couldn't believe how inexpensive this hotel was with choice points. If we ever come back this way I will stay here again. We liked it so much we had reservations elsewhere that were not able to be canceled. We opted to stay here and eat the other hotel bill.More</t>
   </si>
   <si>
+    <t>Amy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r506007968-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1520,6 +1712,9 @@
   </si>
   <si>
     <t>My first visit was impressive, friendly staff and fresh clean rooms. Two months later and it already getting bad. Tomorrow is their grand opening and I watched as either the district or regional manager sat in the bar drunk and made advances on one of the guests. When her husband showed up and she went to call the babysitter....he made ugly remarks about her. This man should be fired. Everyone was preparing for their grand opening but this drunk disgusting married old pervert! He was so unprofessional while telling everyone how important he believes he is.My room had some kind of a water leak and the carpet was soaked the entire 4 days I was there. Simple daily tasks are being missed and should be corrected by management. If they didn't spend their time getting drunk in the bar instead of guiding this hotel staff to excellence, I would be impressed. Too bad they don't lead instead of being an embarrassment to the staff.I had another manager tell me how awful his day was....who cares. I expect excellent service, clean rooms, good food at the end of my day not their complaints about working for their company.I want to stress these were not the daily managers but ones that arrived to help with the grand opening. Perhaps they should have stayed home?More</t>
+  </si>
+  <si>
+    <t>BeachBlondie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r505954452-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -1548,6 +1743,9 @@
 We were supposed to check out on day 4 but had to extend our stay for another night for work. The room was cleaned while we were out and when we returned, our keys were not working. We went to the front desk and they said they thought we checked out. We had to show our reservation confirmation email as no one seemed to have a clue what was going on. They provided a working key...This would have been a 4 star review if it weren't for housekeeping. We saw housekeeping down the hall from our room on our 2nd day and just assumed they would clean the room while we were out for 6 hours. They never did. My husband asked for some towels and body lotion so we could get ready for dinner assuming the room would he cleaned while we were out. It never was. By day 3, we came back after lunch and had to ask that our room be cleaned. The housekeeper that cleaned our room had the audacity to take the lotions I was given the day before from our bathroom and left a half empty bottle. I didn't know housekeeping had the authority to remove items from a guest room. What if I brought these from another hotel? What if I had purchased them? They are Bath &amp; Body Works minis which can be purchased in Bath &amp; Body Works stores everywhere.We were supposed to check out on day 4 but had to extend our stay for another night for work. The room was cleaned while we were out and when we returned, our keys were not working. We went to the front desk and they said they thought we checked out. We had to show our reservation confirmation email as no one seemed to have a clue what was going on. They provided a working key and we went back to our room. Mind you all of our luggage was still in the room. Upon getting into bed, we saw a chocolate stain on the sheets where my husband accidentally dropped a cookie while snacking in bed the night before. When he asked housekeeping about it, they said no one is staying in that room. So they thought we checked out, made the bed and didn't bother to change the sheets for the next guest. Disgusting. The pool was never cleaned during our entire stay. It was filled with leaves and bugs. The bottom looked like it was never vacuumed. I'm not sure who's job this is but they're clearly not doing what they're paid to. In 5 days, I never once saw anyone even skim the pool.It's a shame that housekeeping can ruin a nice, reasonably priced hotel but I will not stay here ever again. There are way too many hotels in the area at the same price point that may not be as new but they are clean. I contacted Choice Hotels regarding this unfortunate situation and my email went ignored so I guess they just don't care.More</t>
   </si>
   <si>
+    <t>Frank40489</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r505681911-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1566,6 +1764,9 @@
     <t>Great place to stay for a lay over or two. Big rooms, very clean, great bar and food. Staff very friendly and helpful. They have a shuttle to the airport. Liked staying, would stay again. The place is very new.More</t>
   </si>
   <si>
+    <t>origna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r501975789-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1590,6 +1791,9 @@
     <t>I was very pleased and satisfied with my stay at the Cambria everything there was amazing and very clean on top of great customer service. Keila that works front desk was outstanding doing our stay there.More</t>
   </si>
   <si>
+    <t>DoubleTrouble1012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r501784181-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1614,6 +1818,9 @@
     <t>We were in awe when we walked into this hotel. We have never stayed at a Cambria Inn &amp; Suites so weren't quite sure what to expect but it exceeded our expectations. It's not quite a Hilton/Marriot but definitely not that far behind. They had a bar which made awesome martinis, a pool with cabanas, a gym with every possible thing you could imagine to get a great workout in and breakfast to order. The room was sleek, modern, clean and high tech. The mirror in our bathroom was blue tooth compatible!!! Can you imagine that?! Absolutely loved hooking my phone up and having surround sound while I showered. And to make things better they had what seemed like a 50" tv. All in all it was a pleasant surprise. If we are ever in the area or need to fly out of LAX this will definitely be our go to place. Great job Cambria Inn &amp; Suites!!!More</t>
   </si>
   <si>
+    <t>Robbie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r500319541-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1638,6 +1845,9 @@
     <t>I chose this hotel because of its vicinity to LAX for one night before my family and I left for Mexico.  It is brand new and modern.  I can't say enough about how well appointed it is.  The pool area was very welcoming with a seating area and fire pit.  The gym was one of the most well furnished gyms that I have ever encountered at a mid level hotel,  There was also a very large seating area in the lobby with bar tops. We arrived at 3:00 (check in time) and our room wasn't ready.   The front desk attendant offered us free breakfast for the following morning as compensation.  I declined as we had to leave before breakfast was to be served.  As a consolation to that, she offered for my wife and I to have our first happy hour drink on the house.  I accepted.  The bar area is full service with food offerings.  Cambria will now be my first choice when I need to fly out of LAX.More</t>
   </si>
   <si>
+    <t>St_louie_Girl76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r496917298-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1656,6 +1866,9 @@
     <t>This hotel is new. The staff was friendly. The rooms are modern with nice decore and very large tv's.  The pool and outside patio area was nice. The only negative was the uncomfortably bed and our room was not refreshed on the third day of our stay. More</t>
   </si>
   <si>
+    <t>imawandrer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r495256952-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1680,6 +1893,9 @@
     <t>We chose this hotel for it's location, near the beach and the airport. It does not offer a free breakfast, as other Choice hotel brands do. This is a business type hotel. The wifi worked well. We checked out the pool area, and it looked very nice. Didn't use it, not enough time. It was clean and roomy, as there were 3 of us. We didn't eat at the restaurant, either. Beds were comfy and the towels were great.More</t>
   </si>
   <si>
+    <t>TDR_Family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r493646789-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1704,6 +1920,9 @@
     <t>I had to pick up my family early the next morning from LAX, so I booked this hotel without ever having stayed with this brand before.  This is a great property, and I would have been very content staying here several days instead of the short visit I had.The suite was a true suite, with a door to the bedroom (not a shortened wall), and this well laid out room was more than sufficient for me. Plenty of space for watching TV or working at a desk, nice bathroom.Only negatives: The biggest problem I had was finding this place even with the GPS.  I drove past the driveway twice because I was expecting a normal sized hotel sign, but this property is a little bit back in what appears to be a corporate parking lot (several buildings around).  There is plenty of parking, although it isn't clear where to park.That is a pretty small thing, but I am happy to have stayed there, and I would stay here again.More</t>
   </si>
   <si>
+    <t>Jeannine86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r490905784-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1725,6 +1944,9 @@
     <t>We booked this hotel before it was open. We booked because of the price. But what a great surprise! Great location near LAX airport, ample of free parking. A supermarket a 3 min drive away. Plenty of restaurants near by.Friendly and very helpful staff. Rooms are more of a 4-5 star standard and very spacious. I travel alot and this hotel room had everything and more. Lovely modern design and very comfortable big beds.There is a fair sized, well equipped gym. The outside area with the pool is small but nicely set out. We didnt have breakfast here as we thought it was overpriced for what they were offering.All in all a lovely hotel, with the most helpful and friendly staff. We will definately stay here again.More</t>
   </si>
   <si>
+    <t>kwong95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r490497346-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1749,6 +1971,9 @@
     <t>This is the cutest hotel near the lax airport. Breakfast buffet in the am. Victoria serving at the bar for happy hour is the sweetest! She will take care of u! Very quick uber to downtown el Segundo. Cute cute atmosphere- every employee goes above and beyond to make your stay great!More</t>
   </si>
   <si>
+    <t>LAtravelGuy_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r490118331-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1767,6 +1992,9 @@
     <t>This property opened at the beginning of May and I had the impression they're still working out some of the details that hopefully will make this a fine hotel. Staff are very friendly and helpful. The location gives the appearance of being a bit isolated but that's not the case. Light rail service is a little over a block away and will take you to the downtown area. Moderately priced and fine dining options are close by - just ask the front desk for assistance. The beach is a bit of a walk but transportation options are easy to access. Hotel rooms are nicely sized and very comfortable. I especially liked the bathroom - good counter space, brightly lighted and a large shower stall (interestingly no shower door). If you enjoy reading in bed you'll like the light provided by the bedside lamp. Although I didn't take advantage of this feature there was a large outside patio near the pool that offered what appeared to be comfortable seating and pillows.More</t>
   </si>
   <si>
+    <t>Radhika V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r488536583-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1785,6 +2013,9 @@
     <t>Pros: good location..if driving. Close to LAX airport and about 20 mins drive to Santa Monica. Also about 50 mins to LA downtown and Hollywood walk of fame. Easy access to interstate. Hotel is fairly new, which is why it's competitively priced for now. Rooms and nice and modern with a big screen TV (Netflix and youtube apps installed). Coffee maker is also in the room. Bathrooms are clean and modern as well. The mirror has Bluetooth speakers. The breakfast is extra but a good spread of buffet and very reasonable. Parking is free as well. Cons: since its a very new property, the staff is also new and looks like...still learning professional skills. The walls are thin, can hear the people outside in the corridor.Over all a good hotel at a great price.More</t>
   </si>
   <si>
+    <t>mgreenttu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r487891098-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1803,6 +2034,9 @@
     <t>I travel for a living, last year I spent 47 weeks on the road. While working near Los Angeles I discovered this GEM of a hotel. Choice hotels has really stepped up their game. Bluetooth speakers in the mirror, full service bar, LED mood lighting in the headboard there's nothing they haven't thought of!!! The bartender Mark is Awesome. Carlos the night manager answered my questions about the hotel at 3:15 am. The pool area can be compared to a 5 star resort, and the fitness center makes some gyms look like a joke. This hotel is worth every penny, and honestly I'd  tell Hilton to shove it, if Cambria hotels were more readily available. You wont be disappointed staying here!!!!! AMAZING HOTEL, &amp; FIRST CLASS STAFF!!!!More</t>
   </si>
   <si>
+    <t>Melanie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r487586999-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1827,6 +2061,9 @@
     <t>I stayed at the Cambria on the 5th for 1 night. The next morning I went to take a shower and the water was COLD. No hot water whatsoever. I called the front desk and they said the hot water had been down since the night prior and they had no idea how long it would take, but that they were working on it. I absolutely had to take a shower and for a hotel I'm paying nearly $200 to stay in I would assume hot water is included. The lady offered me free breakfast in lieu of hot water. What kind of offer is that?? If I have to go somewhere else to take a shower that would definitely take up more time than I had planned for so breakfast was out of the question and quite frankly that offer was a slap in the face. I would have appreciated if they had let me known the night prior when it went down so at least I could have prepared properly or decided to leave the hotel at that point. I would love to support this hotel , but hate to feel they were just pulling a bait and switch on a paying customer. More</t>
   </si>
   <si>
+    <t>Sylvia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r483303406-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1851,6 +2088,9 @@
     <t>This hotel is only 1.6 miles away from the airport, so very functional and quiet. The hotel is new, the towels very thick, it has a nice modern shower, TV with Netflx and other internet channels as well as regular tv, bed comfortable, chrck-in quick and efficient, modern decor.There are only 2 things that bothered me: the carpet in the hallway is so thick that the rollers of my luggage did not work very well and mostly the heat in the room did not go higher  than 76F, coming from Flroida where the temperature is at least 82F made my stay a bit uncomfortable due to the fact I was cold all night long.I did not see a lot of business people there probably because it is so new,  it just opened 2 weeks ago.It is in the same category as a brand new Holliday Inn, execpt a bit better but not the quite As luxurious as a new Marriott.I definitely recommed this hotel.More</t>
   </si>
   <si>
+    <t>Sam R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r482988399-Cambria_Hotel_LAX-El_Segundo_California.html</t>
   </si>
   <si>
@@ -1864,6 +2104,9 @@
   </si>
   <si>
     <t>My Wife and I had an overnight stay at the Cambria and we could not have been more pleased.  Clean, comfortable and the staff was super friendly.  We enjoyed a couple of drinks at the bar area.  Just an overall nice stay.More</t>
+  </si>
+  <si>
+    <t>jill789frank</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32341-d10806610-r482191145-Cambria_Hotel_LAX-El_Segundo_California.html</t>
@@ -2392,43 +2635,47 @@
       <c r="A2" t="n">
         <v>65898</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>129963</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2448,50 +2695,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65898</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>129964</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2505,50 +2756,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65898</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>129965</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2566,50 +2821,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65898</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>129966</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2627,56 +2886,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65898</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>109126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2692,56 +2955,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65898</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>129967</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2759,56 +3026,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65898</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>129968</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2824,56 +3095,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65898</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>129969</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2891,47 +3166,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65898</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>129970</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -2948,56 +3227,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="X10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65898</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>129971</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3015,56 +3298,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65898</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>129972</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3076,56 +3363,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65898</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>129973</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3137,56 +3428,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65898</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>129974</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3198,47 +3493,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65898</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>20646</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -3255,56 +3554,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="X15" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65898</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>29794</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3320,56 +3623,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65898</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>36099</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3385,56 +3692,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65898</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>129975</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3450,56 +3761,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65898</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>129976</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3511,56 +3826,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="X19" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65898</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>129977</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>173</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" t="s">
-        <v>176</v>
-      </c>
-      <c r="L20" t="s">
-        <v>177</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>157</v>
-      </c>
       <c r="O20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3572,56 +3891,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65898</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>129978</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3637,56 +3960,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65898</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>129979</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3704,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65898</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>11058</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3769,56 +4100,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65898</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>129980</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3836,56 +4171,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65898</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>129981</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3903,56 +4242,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="X25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65898</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>17711</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3970,56 +4313,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="X26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65898</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>129982</v>
+      </c>
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4031,56 +4378,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65898</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>11552</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4096,56 +4447,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="X28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65898</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>129983</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4161,56 +4516,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65898</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>129984</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4222,56 +4581,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65898</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>129985</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4283,56 +4646,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65898</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>129986</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O32" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4348,56 +4715,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="X32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65898</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>129987</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4409,56 +4780,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="X33" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="Y33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65898</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>129988</v>
+      </c>
+      <c r="C34" t="s">
+        <v>314</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="J34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4474,56 +4849,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="X34" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="Y34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65898</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>129989</v>
+      </c>
+      <c r="C35" t="s">
+        <v>321</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4535,56 +4914,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="X35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65898</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>129990</v>
+      </c>
+      <c r="C36" t="s">
+        <v>330</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4602,56 +4985,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65898</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>129991</v>
+      </c>
+      <c r="C37" t="s">
+        <v>338</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4663,56 +5050,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="X37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65898</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>129992</v>
+      </c>
+      <c r="C38" t="s">
+        <v>347</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4724,56 +5115,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65898</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>129993</v>
+      </c>
+      <c r="C39" t="s">
+        <v>356</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4785,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65898</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>129994</v>
+      </c>
+      <c r="C40" t="s">
+        <v>362</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4852,56 +5251,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X40" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65898</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>129995</v>
+      </c>
+      <c r="C41" t="s">
+        <v>368</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4917,56 +5320,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X41" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65898</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>129996</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K42" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>336</v>
       </c>
-      <c r="J42" t="s">
-        <v>337</v>
-      </c>
-      <c r="K42" t="s">
-        <v>338</v>
-      </c>
-      <c r="L42" t="s">
-        <v>339</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>301</v>
-      </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4984,56 +5391,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X42" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65898</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5051,56 +5462,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X43" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65898</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>129997</v>
+      </c>
+      <c r="C44" t="s">
+        <v>389</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5112,56 +5527,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X44" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65898</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>129998</v>
+      </c>
+      <c r="C45" t="s">
+        <v>396</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="J45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O45" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5177,56 +5596,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X45" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65898</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>129999</v>
+      </c>
+      <c r="C46" t="s">
+        <v>402</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O46" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5242,47 +5665,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="X46" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65898</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>408</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -5299,56 +5726,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="X47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="Y47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65898</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>6111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>417</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="J48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="K48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="L48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5366,56 +5797,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="X48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="Y48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65898</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>364</v>
+      </c>
+      <c r="C49" t="s">
+        <v>424</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="J49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5433,56 +5868,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="X49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="Y49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65898</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>5740</v>
+      </c>
+      <c r="C50" t="s">
+        <v>434</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5500,56 +5939,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="X50" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="Y50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65898</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>130001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>441</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="J51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="K51" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5561,56 +6004,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="X51" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="Y51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65898</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>130002</v>
+      </c>
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5622,56 +6069,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="X52" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="Y52" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65898</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>130003</v>
+      </c>
+      <c r="C53" t="s">
+        <v>457</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="J53" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="K53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O53" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5683,56 +6134,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="X53" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="Y53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65898</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>130004</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5744,56 +6199,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="X54" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="Y54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65898</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>130005</v>
+      </c>
+      <c r="C55" t="s">
+        <v>471</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="J55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5811,47 +6270,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="Y55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65898</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>130006</v>
+      </c>
+      <c r="C56" t="s">
+        <v>477</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="J56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -5868,56 +6331,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="X56" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="Y56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65898</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>130007</v>
+      </c>
+      <c r="C57" t="s">
+        <v>484</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="J57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="K57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="L57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O57" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5929,56 +6396,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="X57" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="Y57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65898</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>130008</v>
+      </c>
+      <c r="C58" t="s">
+        <v>491</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="J58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="L58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5996,56 +6467,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="X58" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="Y58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65898</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>130009</v>
+      </c>
+      <c r="C59" t="s">
+        <v>498</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="J59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6061,56 +6536,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65898</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>22842</v>
+      </c>
+      <c r="C60" t="s">
+        <v>507</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="J60" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="L60" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O60" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6128,56 +6607,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X60" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y60" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65898</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>130010</v>
+      </c>
+      <c r="C61" t="s">
+        <v>514</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="J61" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="K61" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="L61" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6195,56 +6678,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X61" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y61" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65898</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>32369</v>
+      </c>
+      <c r="C62" t="s">
+        <v>521</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="J62" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="K62" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="L62" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="O62" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6256,47 +6743,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X62" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y62" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65898</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>72122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>528</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="J63" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="K63" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="L63" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6313,56 +6804,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X63" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y63" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65898</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>112520</v>
+      </c>
+      <c r="C64" t="s">
+        <v>535</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="J64" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="K64" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="L64" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6374,56 +6869,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="X64" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="Y64" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65898</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>30135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>541</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="J65" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="K65" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="L65" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="O65" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6435,56 +6934,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="X65" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="Y65" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65898</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>130011</v>
+      </c>
+      <c r="C66" t="s">
+        <v>550</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>487</v>
+        <v>552</v>
       </c>
       <c r="J66" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="K66" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="L66" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="O66" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6502,56 +7005,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="X66" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="Y66" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65898</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>130012</v>
+      </c>
+      <c r="C67" t="s">
+        <v>559</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="J67" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="K67" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="L67" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="O67" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6569,56 +7076,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="X67" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="Y67" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>65898</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>130013</v>
+      </c>
+      <c r="C68" t="s">
+        <v>566</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="J68" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="K68" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="L68" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6630,56 +7141,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="X68" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="Y68" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65898</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>130014</v>
+      </c>
+      <c r="C69" t="s">
+        <v>575</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="J69" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="K69" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="L69" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6691,56 +7206,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="X69" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="Y69" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65898</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>130015</v>
+      </c>
+      <c r="C70" t="s">
+        <v>584</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="J70" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="K70" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="L70" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6756,56 +7275,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="X70" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="Y70" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65898</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>130016</v>
+      </c>
+      <c r="C71" t="s">
+        <v>593</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="J71" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="K71" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="L71" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6817,56 +7340,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="X71" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="Y71" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65898</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>60212</v>
+      </c>
+      <c r="C72" t="s">
+        <v>600</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="J72" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="K72" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="L72" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -6884,56 +7411,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="X72" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="Y72" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65898</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>130017</v>
+      </c>
+      <c r="C73" t="s">
+        <v>609</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="J73" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="K73" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="L73" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="O73" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6951,56 +7482,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X73" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y73" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65898</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>130018</v>
+      </c>
+      <c r="C74" t="s">
+        <v>618</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="J74" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="K74" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="L74" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7016,56 +7551,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="X74" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="Y74" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65898</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>130019</v>
+      </c>
+      <c r="C75" t="s">
+        <v>626</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="J75" t="s">
+        <v>629</v>
+      </c>
+      <c r="K75" t="s">
+        <v>630</v>
+      </c>
+      <c r="L75" t="s">
+        <v>631</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
         <v>555</v>
       </c>
-      <c r="K75" t="s">
-        <v>556</v>
-      </c>
-      <c r="L75" t="s">
-        <v>557</v>
-      </c>
-      <c r="M75" t="n">
-        <v>5</v>
-      </c>
-      <c r="N75" t="s">
-        <v>490</v>
-      </c>
       <c r="O75" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7077,56 +7616,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="X75" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="Y75" t="s">
-        <v>560</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>65898</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>130020</v>
+      </c>
+      <c r="C76" t="s">
+        <v>635</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="J76" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="K76" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="L76" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O76" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -7144,56 +7687,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="X76" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="Y76" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>65898</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>130021</v>
+      </c>
+      <c r="C77" t="s">
+        <v>642</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="J77" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="K77" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="L77" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7205,56 +7752,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="X77" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="Y77" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>65898</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>130022</v>
+      </c>
+      <c r="C78" t="s">
+        <v>649</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="J78" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="K78" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="L78" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O78" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7270,56 +7821,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="X78" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="Y78" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>65898</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>13258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>656</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="J79" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="K79" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="L79" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O79" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7331,47 +7886,51 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="X79" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="Y79" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>65898</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>96478</v>
+      </c>
+      <c r="C80" t="s">
+        <v>665</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="J80" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="K80" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="L80" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
@@ -7388,56 +7947,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="X80" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="Y80" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>65898</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>61583</v>
+      </c>
+      <c r="C81" t="s">
+        <v>674</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="J81" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="K81" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="L81" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7455,47 +8018,51 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="X81" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="Y81" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>65898</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>130023</v>
+      </c>
+      <c r="C82" t="s">
+        <v>680</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="J82" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="K82" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="L82" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
@@ -7512,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="X82" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="Y82" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_95.xlsx
@@ -2636,7 +2636,7 @@
         <v>65898</v>
       </c>
       <c r="B2" t="n">
-        <v>129963</v>
+        <v>160671</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2703,7 +2703,7 @@
         <v>65898</v>
       </c>
       <c r="B3" t="n">
-        <v>129964</v>
+        <v>160672</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -2764,7 +2764,7 @@
         <v>65898</v>
       </c>
       <c r="B4" t="n">
-        <v>129965</v>
+        <v>160673</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -2829,7 +2829,7 @@
         <v>65898</v>
       </c>
       <c r="B5" t="n">
-        <v>129966</v>
+        <v>160674</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -2969,7 +2969,7 @@
         <v>65898</v>
       </c>
       <c r="B7" t="n">
-        <v>129967</v>
+        <v>160675</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -3040,7 +3040,7 @@
         <v>65898</v>
       </c>
       <c r="B8" t="n">
-        <v>129968</v>
+        <v>160676</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -3109,7 +3109,7 @@
         <v>65898</v>
       </c>
       <c r="B9" t="n">
-        <v>129969</v>
+        <v>160677</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -3180,7 +3180,7 @@
         <v>65898</v>
       </c>
       <c r="B10" t="n">
-        <v>129970</v>
+        <v>160678</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -3241,7 +3241,7 @@
         <v>65898</v>
       </c>
       <c r="B11" t="n">
-        <v>129971</v>
+        <v>160679</v>
       </c>
       <c r="C11" t="s">
         <v>118</v>
@@ -3312,7 +3312,7 @@
         <v>65898</v>
       </c>
       <c r="B12" t="n">
-        <v>129972</v>
+        <v>160680</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -3377,7 +3377,7 @@
         <v>65898</v>
       </c>
       <c r="B13" t="n">
-        <v>129973</v>
+        <v>160681</v>
       </c>
       <c r="C13" t="s">
         <v>135</v>
@@ -3442,7 +3442,7 @@
         <v>65898</v>
       </c>
       <c r="B14" t="n">
-        <v>129974</v>
+        <v>160682</v>
       </c>
       <c r="C14" t="s">
         <v>143</v>
@@ -3706,7 +3706,7 @@
         <v>65898</v>
       </c>
       <c r="B18" t="n">
-        <v>129975</v>
+        <v>160683</v>
       </c>
       <c r="C18" t="s">
         <v>177</v>
@@ -3775,7 +3775,7 @@
         <v>65898</v>
       </c>
       <c r="B19" t="n">
-        <v>129976</v>
+        <v>160684</v>
       </c>
       <c r="C19" t="s">
         <v>184</v>
@@ -3840,7 +3840,7 @@
         <v>65898</v>
       </c>
       <c r="B20" t="n">
-        <v>129977</v>
+        <v>160685</v>
       </c>
       <c r="C20" t="s">
         <v>191</v>
@@ -3905,7 +3905,7 @@
         <v>65898</v>
       </c>
       <c r="B21" t="n">
-        <v>129978</v>
+        <v>160686</v>
       </c>
       <c r="C21" t="s">
         <v>200</v>
@@ -3974,7 +3974,7 @@
         <v>65898</v>
       </c>
       <c r="B22" t="n">
-        <v>129979</v>
+        <v>160687</v>
       </c>
       <c r="C22" t="s">
         <v>210</v>
@@ -4114,7 +4114,7 @@
         <v>65898</v>
       </c>
       <c r="B24" t="n">
-        <v>129980</v>
+        <v>160688</v>
       </c>
       <c r="C24" t="s">
         <v>230</v>
@@ -4185,7 +4185,7 @@
         <v>65898</v>
       </c>
       <c r="B25" t="n">
-        <v>129981</v>
+        <v>160689</v>
       </c>
       <c r="C25" t="s">
         <v>236</v>
@@ -4327,7 +4327,7 @@
         <v>65898</v>
       </c>
       <c r="B27" t="n">
-        <v>129982</v>
+        <v>160690</v>
       </c>
       <c r="C27" t="s">
         <v>254</v>
@@ -4461,7 +4461,7 @@
         <v>65898</v>
       </c>
       <c r="B29" t="n">
-        <v>129983</v>
+        <v>160691</v>
       </c>
       <c r="C29" t="s">
         <v>271</v>
@@ -4530,7 +4530,7 @@
         <v>65898</v>
       </c>
       <c r="B30" t="n">
-        <v>129984</v>
+        <v>160692</v>
       </c>
       <c r="C30" t="s">
         <v>281</v>
@@ -4595,7 +4595,7 @@
         <v>65898</v>
       </c>
       <c r="B31" t="n">
-        <v>129985</v>
+        <v>160693</v>
       </c>
       <c r="C31" t="s">
         <v>288</v>
@@ -4660,7 +4660,7 @@
         <v>65898</v>
       </c>
       <c r="B32" t="n">
-        <v>129986</v>
+        <v>160694</v>
       </c>
       <c r="C32" t="s">
         <v>297</v>
@@ -4729,7 +4729,7 @@
         <v>65898</v>
       </c>
       <c r="B33" t="n">
-        <v>129987</v>
+        <v>160695</v>
       </c>
       <c r="C33" t="s">
         <v>307</v>
@@ -4794,7 +4794,7 @@
         <v>65898</v>
       </c>
       <c r="B34" t="n">
-        <v>129988</v>
+        <v>160696</v>
       </c>
       <c r="C34" t="s">
         <v>314</v>
@@ -4863,7 +4863,7 @@
         <v>65898</v>
       </c>
       <c r="B35" t="n">
-        <v>129989</v>
+        <v>160697</v>
       </c>
       <c r="C35" t="s">
         <v>321</v>
@@ -4928,7 +4928,7 @@
         <v>65898</v>
       </c>
       <c r="B36" t="n">
-        <v>129990</v>
+        <v>160698</v>
       </c>
       <c r="C36" t="s">
         <v>330</v>
@@ -4999,7 +4999,7 @@
         <v>65898</v>
       </c>
       <c r="B37" t="n">
-        <v>129991</v>
+        <v>160699</v>
       </c>
       <c r="C37" t="s">
         <v>338</v>
@@ -5064,7 +5064,7 @@
         <v>65898</v>
       </c>
       <c r="B38" t="n">
-        <v>129992</v>
+        <v>160700</v>
       </c>
       <c r="C38" t="s">
         <v>347</v>
@@ -5129,7 +5129,7 @@
         <v>65898</v>
       </c>
       <c r="B39" t="n">
-        <v>129993</v>
+        <v>160701</v>
       </c>
       <c r="C39" t="s">
         <v>356</v>
@@ -5194,7 +5194,7 @@
         <v>65898</v>
       </c>
       <c r="B40" t="n">
-        <v>129994</v>
+        <v>160702</v>
       </c>
       <c r="C40" t="s">
         <v>362</v>
@@ -5265,7 +5265,7 @@
         <v>65898</v>
       </c>
       <c r="B41" t="n">
-        <v>129995</v>
+        <v>160703</v>
       </c>
       <c r="C41" t="s">
         <v>368</v>
@@ -5334,7 +5334,7 @@
         <v>65898</v>
       </c>
       <c r="B42" t="n">
-        <v>129996</v>
+        <v>160704</v>
       </c>
       <c r="C42" t="s">
         <v>375</v>
@@ -5476,7 +5476,7 @@
         <v>65898</v>
       </c>
       <c r="B44" t="n">
-        <v>129997</v>
+        <v>160705</v>
       </c>
       <c r="C44" t="s">
         <v>389</v>
@@ -5541,7 +5541,7 @@
         <v>65898</v>
       </c>
       <c r="B45" t="n">
-        <v>129998</v>
+        <v>160706</v>
       </c>
       <c r="C45" t="s">
         <v>396</v>
@@ -5610,7 +5610,7 @@
         <v>65898</v>
       </c>
       <c r="B46" t="n">
-        <v>129999</v>
+        <v>160707</v>
       </c>
       <c r="C46" t="s">
         <v>402</v>
@@ -5679,7 +5679,7 @@
         <v>65898</v>
       </c>
       <c r="B47" t="n">
-        <v>130000</v>
+        <v>160708</v>
       </c>
       <c r="C47" t="s">
         <v>408</v>
@@ -5953,7 +5953,7 @@
         <v>65898</v>
       </c>
       <c r="B51" t="n">
-        <v>130001</v>
+        <v>160709</v>
       </c>
       <c r="C51" t="s">
         <v>441</v>
@@ -6018,7 +6018,7 @@
         <v>65898</v>
       </c>
       <c r="B52" t="n">
-        <v>130002</v>
+        <v>160710</v>
       </c>
       <c r="C52" t="s">
         <v>448</v>
@@ -6083,7 +6083,7 @@
         <v>65898</v>
       </c>
       <c r="B53" t="n">
-        <v>130003</v>
+        <v>160711</v>
       </c>
       <c r="C53" t="s">
         <v>457</v>
@@ -6148,7 +6148,7 @@
         <v>65898</v>
       </c>
       <c r="B54" t="n">
-        <v>130004</v>
+        <v>160712</v>
       </c>
       <c r="C54" t="s">
         <v>464</v>
@@ -6213,7 +6213,7 @@
         <v>65898</v>
       </c>
       <c r="B55" t="n">
-        <v>130005</v>
+        <v>160713</v>
       </c>
       <c r="C55" t="s">
         <v>471</v>
@@ -6284,7 +6284,7 @@
         <v>65898</v>
       </c>
       <c r="B56" t="n">
-        <v>130006</v>
+        <v>160714</v>
       </c>
       <c r="C56" t="s">
         <v>477</v>
@@ -6345,7 +6345,7 @@
         <v>65898</v>
       </c>
       <c r="B57" t="n">
-        <v>130007</v>
+        <v>160715</v>
       </c>
       <c r="C57" t="s">
         <v>484</v>
@@ -6410,7 +6410,7 @@
         <v>65898</v>
       </c>
       <c r="B58" t="n">
-        <v>130008</v>
+        <v>160716</v>
       </c>
       <c r="C58" t="s">
         <v>491</v>
@@ -6481,7 +6481,7 @@
         <v>65898</v>
       </c>
       <c r="B59" t="n">
-        <v>130009</v>
+        <v>160717</v>
       </c>
       <c r="C59" t="s">
         <v>498</v>
@@ -6621,7 +6621,7 @@
         <v>65898</v>
       </c>
       <c r="B61" t="n">
-        <v>130010</v>
+        <v>160718</v>
       </c>
       <c r="C61" t="s">
         <v>514</v>
@@ -6948,7 +6948,7 @@
         <v>65898</v>
       </c>
       <c r="B66" t="n">
-        <v>130011</v>
+        <v>160719</v>
       </c>
       <c r="C66" t="s">
         <v>550</v>
@@ -7019,7 +7019,7 @@
         <v>65898</v>
       </c>
       <c r="B67" t="n">
-        <v>130012</v>
+        <v>160720</v>
       </c>
       <c r="C67" t="s">
         <v>559</v>
@@ -7090,7 +7090,7 @@
         <v>65898</v>
       </c>
       <c r="B68" t="n">
-        <v>130013</v>
+        <v>160721</v>
       </c>
       <c r="C68" t="s">
         <v>566</v>
@@ -7155,7 +7155,7 @@
         <v>65898</v>
       </c>
       <c r="B69" t="n">
-        <v>130014</v>
+        <v>160722</v>
       </c>
       <c r="C69" t="s">
         <v>575</v>
@@ -7220,7 +7220,7 @@
         <v>65898</v>
       </c>
       <c r="B70" t="n">
-        <v>130015</v>
+        <v>160723</v>
       </c>
       <c r="C70" t="s">
         <v>584</v>
@@ -7289,7 +7289,7 @@
         <v>65898</v>
       </c>
       <c r="B71" t="n">
-        <v>130016</v>
+        <v>160724</v>
       </c>
       <c r="C71" t="s">
         <v>593</v>
@@ -7425,7 +7425,7 @@
         <v>65898</v>
       </c>
       <c r="B73" t="n">
-        <v>130017</v>
+        <v>160725</v>
       </c>
       <c r="C73" t="s">
         <v>609</v>
@@ -7496,7 +7496,7 @@
         <v>65898</v>
       </c>
       <c r="B74" t="n">
-        <v>130018</v>
+        <v>160726</v>
       </c>
       <c r="C74" t="s">
         <v>618</v>
@@ -7565,7 +7565,7 @@
         <v>65898</v>
       </c>
       <c r="B75" t="n">
-        <v>130019</v>
+        <v>160727</v>
       </c>
       <c r="C75" t="s">
         <v>626</v>
@@ -7630,7 +7630,7 @@
         <v>65898</v>
       </c>
       <c r="B76" t="n">
-        <v>130020</v>
+        <v>160728</v>
       </c>
       <c r="C76" t="s">
         <v>635</v>
@@ -7701,7 +7701,7 @@
         <v>65898</v>
       </c>
       <c r="B77" t="n">
-        <v>130021</v>
+        <v>160729</v>
       </c>
       <c r="C77" t="s">
         <v>642</v>
@@ -7766,7 +7766,7 @@
         <v>65898</v>
       </c>
       <c r="B78" t="n">
-        <v>130022</v>
+        <v>160730</v>
       </c>
       <c r="C78" t="s">
         <v>649</v>
@@ -8032,7 +8032,7 @@
         <v>65898</v>
       </c>
       <c r="B82" t="n">
-        <v>130023</v>
+        <v>160731</v>
       </c>
       <c r="C82" t="s">
         <v>680</v>
